--- a/data/MoCA/moca_df.xlsx
+++ b/data/MoCA/moca_df.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T75"/>
+  <dimension ref="A1:V75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,85 +451,95 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>MoCA_ratio</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>MoCA_diff</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>AGE_AT_OP</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>MAD_L</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>MAD_R</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>alpha_L</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>alpha_R</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>beta_L</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>beta_R</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>theta_L</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>theta_R</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>X_L</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Y_L</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Z_L</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>X_R</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Y_R</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Z_R</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>LEDD_ratio</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Pat_ID</t>
         </is>
@@ -546,54 +556,60 @@
         <v>-0.4870341394230769</v>
       </c>
       <c r="D2" t="n">
+        <v>-0.1942307692307693</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-10</v>
+      </c>
+      <c r="F2" t="n">
         <v>71.37850787132102</v>
       </c>
-      <c r="E2" t="n">
+      <c r="G2" t="n">
         <v>2.180834572938085e-06</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
         <v>2.494273433350744e-06</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>0.05669135667999137</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>0.05563044131799355</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
         <v>0.009206507880679504</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>0.01012611658196896</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
         <v>0.04930154640838019</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>0.06115633810783769</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>-11.15703333</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>-14.85273333</v>
       </c>
-      <c r="O2" t="n">
+      <c r="Q2" t="n">
         <v>-8.54097333</v>
       </c>
-      <c r="P2" t="n">
+      <c r="R2" t="n">
         <v>10.43112667</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="S2" t="n">
         <v>-13.39276667</v>
       </c>
-      <c r="R2" t="n">
+      <c r="T2" t="n">
         <v>-9.115536669999999</v>
       </c>
-      <c r="S2" t="n">
+      <c r="U2" t="n">
         <v>4.904375</v>
       </c>
-      <c r="T2" t="n">
+      <c r="V2" t="n">
         <v>3</v>
       </c>
     </row>
@@ -608,54 +624,60 @@
         <v>-0.4870341394230769</v>
       </c>
       <c r="D3" t="n">
+        <v>-0.1942307692307693</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-10</v>
+      </c>
+      <c r="F3" t="n">
         <v>67.74264202600958</v>
       </c>
-      <c r="E3" t="n">
+      <c r="G3" t="n">
         <v>2.891713653098369e-06</v>
       </c>
-      <c r="F3" t="n">
+      <c r="H3" t="n">
         <v>2.14348837394247e-06</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>0.04227727083782332</v>
       </c>
-      <c r="H3" t="n">
+      <c r="J3" t="n">
         <v>0.03763053801175861</v>
       </c>
-      <c r="I3" t="n">
+      <c r="K3" t="n">
         <v>0.009469034042065371</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>0.008040865832093765</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>0.1037310984346987</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>0.1011746718439725</v>
       </c>
-      <c r="M3" t="n">
+      <c r="O3" t="n">
         <v>-13.45333333</v>
       </c>
-      <c r="N3" t="n">
+      <c r="P3" t="n">
         <v>-13.43683333</v>
       </c>
-      <c r="O3" t="n">
+      <c r="Q3" t="n">
         <v>-4.52537</v>
       </c>
-      <c r="P3" t="n">
+      <c r="R3" t="n">
         <v>12.9834</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="S3" t="n">
         <v>-14.35446667</v>
       </c>
-      <c r="R3" t="n">
+      <c r="T3" t="n">
         <v>-6.94311333</v>
       </c>
-      <c r="S3" t="n">
+      <c r="U3" t="n">
         <v>1.808074074074074</v>
       </c>
-      <c r="T3" t="n">
+      <c r="V3" t="n">
         <v>7</v>
       </c>
     </row>
@@ -670,54 +692,60 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
         <v>58.59822039698837</v>
       </c>
-      <c r="E4" t="n">
+      <c r="G4" t="n">
         <v>2.631860707069942e-06</v>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
         <v>2.604240407601447e-06</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>0.01958922994065052</v>
       </c>
-      <c r="H4" t="n">
+      <c r="J4" t="n">
         <v>0.02157979512314762</v>
       </c>
-      <c r="I4" t="n">
+      <c r="K4" t="n">
         <v>0.008353858699485833</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>0.01829256101303156</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>0.08084244704007595</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>0.03455460226945921</v>
       </c>
-      <c r="M4" t="n">
+      <c r="O4" t="n">
         <v>-12.0114</v>
       </c>
-      <c r="N4" t="n">
+      <c r="P4" t="n">
         <v>-12.54086667</v>
       </c>
-      <c r="O4" t="n">
+      <c r="Q4" t="n">
         <v>-6.30215333</v>
       </c>
-      <c r="P4" t="n">
+      <c r="R4" t="n">
         <v>11.219</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="S4" t="n">
         <v>-12.17706667</v>
       </c>
-      <c r="R4" t="n">
+      <c r="T4" t="n">
         <v>-5.73698667</v>
       </c>
-      <c r="S4" t="n">
+      <c r="U4" t="n">
         <v>1.712418300653595</v>
       </c>
-      <c r="T4" t="n">
+      <c r="V4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -732,54 +760,60 @@
         <v>-0.1857409259259259</v>
       </c>
       <c r="D5" t="n">
+        <v>-0.07407407407407407</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-4</v>
+      </c>
+      <c r="F5" t="n">
         <v>65.19096509240246</v>
       </c>
-      <c r="E5" t="n">
+      <c r="G5" t="n">
         <v>2.34117199714121e-06</v>
       </c>
-      <c r="F5" t="n">
+      <c r="H5" t="n">
         <v>2.14183692720516e-06</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>0.01201394464331427</v>
       </c>
-      <c r="H5" t="n">
+      <c r="J5" t="n">
         <v>0.03333742868965806</v>
       </c>
-      <c r="I5" t="n">
+      <c r="K5" t="n">
         <v>0.02612479666515993</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>0.01488226602018156</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>0.01852458778277636</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>0.04871207202435008</v>
       </c>
-      <c r="M5" t="n">
+      <c r="O5" t="n">
         <v>-13.3029</v>
       </c>
-      <c r="N5" t="n">
+      <c r="P5" t="n">
         <v>-14.50403333</v>
       </c>
-      <c r="O5" t="n">
+      <c r="Q5" t="n">
         <v>-6.40624667</v>
       </c>
-      <c r="P5" t="n">
+      <c r="R5" t="n">
         <v>11.2234</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="S5" t="n">
         <v>-12.92236667</v>
       </c>
-      <c r="R5" t="n">
+      <c r="T5" t="n">
         <v>-4.74382333</v>
       </c>
-      <c r="S5" t="n">
+      <c r="U5" t="n">
         <v>9.24</v>
       </c>
-      <c r="T5" t="n">
+      <c r="V5" t="n">
         <v>12</v>
       </c>
     </row>
@@ -794,54 +828,60 @@
         <v>-0.04250004237288136</v>
       </c>
       <c r="D6" t="n">
+        <v>-0.01694915254237288</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F6" t="n">
         <v>50.83915126625599</v>
       </c>
-      <c r="E6" t="n">
+      <c r="G6" t="n">
         <v>2.262959562769623e-06</v>
       </c>
-      <c r="F6" t="n">
+      <c r="H6" t="n">
         <v>3.058077340074692e-06</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>0.01739248423861268</v>
       </c>
-      <c r="H6" t="n">
+      <c r="J6" t="n">
         <v>0.02029982852281653</v>
       </c>
-      <c r="I6" t="n">
+      <c r="K6" t="n">
         <v>0.009994274412917187</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>0.01914559232464555</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>0.1083571917678915</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>0.06651944115504579</v>
       </c>
-      <c r="M6" t="n">
+      <c r="O6" t="n">
         <v>-10.57997667</v>
       </c>
-      <c r="N6" t="n">
+      <c r="P6" t="n">
         <v>-11.05803333</v>
       </c>
-      <c r="O6" t="n">
+      <c r="Q6" t="n">
         <v>-6.07622667</v>
       </c>
-      <c r="P6" t="n">
+      <c r="R6" t="n">
         <v>11.8746</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="S6" t="n">
         <v>-12.3121</v>
       </c>
-      <c r="R6" t="n">
+      <c r="T6" t="n">
         <v>-6.28781</v>
       </c>
-      <c r="S6" t="n">
+      <c r="U6" t="n">
         <v>1.166666666666667</v>
       </c>
-      <c r="T6" t="n">
+      <c r="V6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -856,54 +896,60 @@
         <v>0.08955366071428572</v>
       </c>
       <c r="D7" t="n">
+        <v>0.03571428571428571</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F7" t="n">
         <v>65.39904175222451</v>
       </c>
-      <c r="E7" t="n">
+      <c r="G7" t="n">
         <v>1.661784748609576e-06</v>
       </c>
-      <c r="F7" t="n">
+      <c r="H7" t="n">
         <v>1.8518410163595e-06</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>0.01165515961481634</v>
       </c>
-      <c r="H7" t="n">
+      <c r="J7" t="n">
         <v>0.02381535306737124</v>
       </c>
-      <c r="I7" t="n">
+      <c r="K7" t="n">
         <v>0.003705874362595131</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>0.006125241302825487</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>0.1279694981940721</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>0.1044409100356905</v>
       </c>
-      <c r="M7" t="n">
+      <c r="O7" t="n">
         <v>-15.0318</v>
       </c>
-      <c r="N7" t="n">
+      <c r="P7" t="n">
         <v>-10.5268</v>
       </c>
-      <c r="O7" t="n">
+      <c r="Q7" t="n">
         <v>-3.9544</v>
       </c>
-      <c r="P7" t="n">
+      <c r="R7" t="n">
         <v>11.4984</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="S7" t="n">
         <v>-13.8958</v>
       </c>
-      <c r="R7" t="n">
+      <c r="T7" t="n">
         <v>-4.1521</v>
       </c>
-      <c r="S7" t="n">
+      <c r="U7" t="n">
         <v>1.580645161290323</v>
       </c>
-      <c r="T7" t="n">
+      <c r="V7" t="n">
         <v>8</v>
       </c>
     </row>
@@ -918,54 +964,60 @@
         <v>-0.04559095454545455</v>
       </c>
       <c r="D8" t="n">
+        <v>-0.01818181818181818</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F8" t="n">
         <v>61.15263518138261</v>
       </c>
-      <c r="E8" t="n">
+      <c r="G8" t="n">
         <v>2.641151321225423e-06</v>
       </c>
-      <c r="F8" t="n">
+      <c r="H8" t="n">
         <v>3.145316991860288e-06</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>0.02377343100684414</v>
       </c>
-      <c r="H8" t="n">
+      <c r="J8" t="n">
         <v>0.01491454508435252</v>
       </c>
-      <c r="I8" t="n">
+      <c r="K8" t="n">
         <v>0.008003113363759374</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>0.007106288462644517</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>0.04890757465866636</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>0.02675953409995426</v>
       </c>
-      <c r="M8" t="n">
+      <c r="O8" t="n">
         <v>-12.7968</v>
       </c>
-      <c r="N8" t="n">
+      <c r="P8" t="n">
         <v>-13.50415</v>
       </c>
-      <c r="O8" t="n">
+      <c r="Q8" t="n">
         <v>-7.88003</v>
       </c>
-      <c r="P8" t="n">
+      <c r="R8" t="n">
         <v>10.29046</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="S8" t="n">
         <v>-13.9838</v>
       </c>
-      <c r="R8" t="n">
+      <c r="T8" t="n">
         <v>-6.92330333</v>
       </c>
-      <c r="S8" t="n">
+      <c r="U8" t="n">
         <v>1.205882352941176</v>
       </c>
-      <c r="T8" t="n">
+      <c r="V8" t="n">
         <v>4</v>
       </c>
     </row>
@@ -980,54 +1032,60 @@
         <v>-0.2279547727272727</v>
       </c>
       <c r="D9" t="n">
+        <v>-0.09090909090909091</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F9" t="n">
         <v>70.43394934976044</v>
       </c>
-      <c r="E9" t="n">
+      <c r="G9" t="n">
         <v>1.509734829992943e-06</v>
       </c>
-      <c r="F9" t="n">
+      <c r="H9" t="n">
         <v>1.577781674051824e-06</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>0.02898463643847031</v>
       </c>
-      <c r="H9" t="n">
+      <c r="J9" t="n">
         <v>0.04082788906800726</v>
       </c>
-      <c r="I9" t="n">
+      <c r="K9" t="n">
         <v>0.00444969331467253</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>0.008646091161520601</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>0.1074093699799301</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>0.07957090095850729</v>
       </c>
-      <c r="M9" t="n">
+      <c r="O9" t="n">
         <v>-11.4896</v>
       </c>
-      <c r="N9" t="n">
+      <c r="P9" t="n">
         <v>-13.3376</v>
       </c>
-      <c r="O9" t="n">
+      <c r="Q9" t="n">
         <v>-6.00399333</v>
       </c>
-      <c r="P9" t="n">
+      <c r="R9" t="n">
         <v>13.445</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="S9" t="n">
         <v>-12.27326667</v>
       </c>
-      <c r="R9" t="n">
+      <c r="T9" t="n">
         <v>-8.68114667</v>
       </c>
-      <c r="S9" t="n">
+      <c r="U9" t="n">
         <v>1.025454545454546</v>
       </c>
-      <c r="T9" t="n">
+      <c r="V9" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1042,54 +1100,60 @@
         <v>0.2458335784313726</v>
       </c>
       <c r="D10" t="n">
+        <v>0.09803921568627451</v>
+      </c>
+      <c r="E10" t="n">
+        <v>5</v>
+      </c>
+      <c r="F10" t="n">
         <v>51.96988364134155</v>
       </c>
-      <c r="E10" t="n">
+      <c r="G10" t="n">
         <v>1.691277823567552e-06</v>
       </c>
-      <c r="F10" t="n">
+      <c r="H10" t="n">
         <v>2.052784226791587e-06</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>0.03841639569988119</v>
       </c>
-      <c r="H10" t="n">
+      <c r="J10" t="n">
         <v>0.02592099233413286</v>
       </c>
-      <c r="I10" t="n">
+      <c r="K10" t="n">
         <v>0.0106763045361665</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>0.006147031273344787</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>0.09308713642492371</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>0.05448981876560322</v>
       </c>
-      <c r="M10" t="n">
+      <c r="O10" t="n">
         <v>-12.187</v>
       </c>
-      <c r="N10" t="n">
+      <c r="P10" t="n">
         <v>-13.9076</v>
       </c>
-      <c r="O10" t="n">
+      <c r="Q10" t="n">
         <v>-5.85165</v>
       </c>
-      <c r="P10" t="n">
+      <c r="R10" t="n">
         <v>11.738</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="S10" t="n">
         <v>-13.9631</v>
       </c>
-      <c r="R10" t="n">
+      <c r="T10" t="n">
         <v>-5.69338</v>
       </c>
-      <c r="S10" t="n">
+      <c r="U10" t="n">
         <v>1.353383458646616</v>
       </c>
-      <c r="T10" t="n">
+      <c r="V10" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1104,54 +1168,60 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
         <v>56.66803559206024</v>
       </c>
-      <c r="E11" t="n">
+      <c r="G11" t="n">
         <v>2.945343335160461e-06</v>
       </c>
-      <c r="F11" t="n">
+      <c r="H11" t="n">
         <v>2.388935291293474e-06</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>0.01730380235519132</v>
       </c>
-      <c r="H11" t="n">
+      <c r="J11" t="n">
         <v>0.02213949884829194</v>
       </c>
-      <c r="I11" t="n">
+      <c r="K11" t="n">
         <v>0.007986449960800094</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>0.01175643864382187</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>0.05291675238707672</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>0.05504730358115705</v>
       </c>
-      <c r="M11" t="n">
+      <c r="O11" t="n">
         <v>-13.07016667</v>
       </c>
-      <c r="N11" t="n">
+      <c r="P11" t="n">
         <v>-13.07146667</v>
       </c>
-      <c r="O11" t="n">
+      <c r="Q11" t="n">
         <v>-5.08192667</v>
       </c>
-      <c r="P11" t="n">
+      <c r="R11" t="n">
         <v>13.1458</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="S11" t="n">
         <v>-13.4392</v>
       </c>
-      <c r="R11" t="n">
+      <c r="T11" t="n">
         <v>-2.43277</v>
       </c>
-      <c r="S11" t="n">
+      <c r="U11" t="n">
         <v>13</v>
       </c>
-      <c r="T11" t="n">
+      <c r="V11" t="n">
         <v>32</v>
       </c>
     </row>
@@ -1166,54 +1236,60 @@
         <v>-0.3582146428571429</v>
       </c>
       <c r="D12" t="n">
+        <v>-0.1428571428571428</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-6</v>
+      </c>
+      <c r="F12" t="n">
         <v>61.347022587269</v>
       </c>
-      <c r="E12" t="n">
+      <c r="G12" t="n">
         <v>1.680661928049142e-06</v>
       </c>
-      <c r="F12" t="n">
+      <c r="H12" t="n">
         <v>2.145054792900134e-06</v>
       </c>
-      <c r="G12" t="n">
+      <c r="I12" t="n">
         <v>0.03858987795137588</v>
       </c>
-      <c r="H12" t="n">
+      <c r="J12" t="n">
         <v>0.02996105879970223</v>
       </c>
-      <c r="I12" t="n">
+      <c r="K12" t="n">
         <v>0.01040206210764499</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>0.01098115693568962</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>0.1016792486810596</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
         <v>0.09219535167586664</v>
       </c>
-      <c r="M12" t="n">
+      <c r="O12" t="n">
         <v>-16.9727</v>
       </c>
-      <c r="N12" t="n">
+      <c r="P12" t="n">
         <v>-13.0932</v>
       </c>
-      <c r="O12" t="n">
+      <c r="Q12" t="n">
         <v>-4.63222</v>
       </c>
-      <c r="P12" t="n">
+      <c r="R12" t="n">
         <v>14.8155</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="S12" t="n">
         <v>-11.0574</v>
       </c>
-      <c r="R12" t="n">
+      <c r="T12" t="n">
         <v>1.12993</v>
       </c>
-      <c r="S12" t="n">
+      <c r="U12" t="n">
         <v>1.726190476190476</v>
       </c>
-      <c r="T12" t="n">
+      <c r="V12" t="n">
         <v>11</v>
       </c>
     </row>
@@ -1228,54 +1304,60 @@
         <v>0.04916671568627452</v>
       </c>
       <c r="D13" t="n">
+        <v>0.0196078431372549</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" t="n">
         <v>65.00752908966462</v>
       </c>
-      <c r="E13" t="n">
+      <c r="G13" t="n">
         <v>2.384296867525231e-06</v>
       </c>
-      <c r="F13" t="n">
+      <c r="H13" t="n">
         <v>2.267726292775608e-06</v>
       </c>
-      <c r="G13" t="n">
+      <c r="I13" t="n">
         <v>0.02266845952307394</v>
       </c>
-      <c r="H13" t="n">
+      <c r="J13" t="n">
         <v>0.03452876136170605</v>
       </c>
-      <c r="I13" t="n">
+      <c r="K13" t="n">
         <v>0.01053918332190575</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>0.007704964030363682</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>0.04910456053352327</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13" t="n">
         <v>0.060556744851434</v>
       </c>
-      <c r="M13" t="n">
+      <c r="O13" t="n">
         <v>-12.92946667</v>
       </c>
-      <c r="N13" t="n">
+      <c r="P13" t="n">
         <v>-14.05336667</v>
       </c>
-      <c r="O13" t="n">
+      <c r="Q13" t="n">
         <v>-8.30332333</v>
       </c>
-      <c r="P13" t="n">
+      <c r="R13" t="n">
         <v>12.1074</v>
       </c>
-      <c r="Q13" t="n">
+      <c r="S13" t="n">
         <v>-12.5472</v>
       </c>
-      <c r="R13" t="n">
+      <c r="T13" t="n">
         <v>-3.91386</v>
       </c>
-      <c r="S13" t="n">
+      <c r="U13" t="n">
         <v>0.5555555555555556</v>
       </c>
-      <c r="T13" t="n">
+      <c r="V13" t="n">
         <v>15</v>
       </c>
     </row>
@@ -1290,54 +1372,60 @@
         <v>-0.1367728636363637</v>
       </c>
       <c r="D14" t="n">
+        <v>-0.05454545454545454</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F14" t="n">
         <v>66.9514031485284</v>
       </c>
-      <c r="E14" t="n">
+      <c r="G14" t="n">
         <v>2.049048196710674e-06</v>
       </c>
-      <c r="F14" t="n">
+      <c r="H14" t="n">
         <v>2.062991956148775e-06</v>
       </c>
-      <c r="G14" t="n">
+      <c r="I14" t="n">
         <v>0.04247565349103408</v>
       </c>
-      <c r="H14" t="n">
+      <c r="J14" t="n">
         <v>0.02397433766398412</v>
       </c>
-      <c r="I14" t="n">
+      <c r="K14" t="n">
         <v>0.003354816651313278</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>0.003112772336494157</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>0.1063421465615887</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
         <v>0.1459182356995662</v>
       </c>
-      <c r="M14" t="n">
+      <c r="O14" t="n">
         <v>-12.4914</v>
       </c>
-      <c r="N14" t="n">
+      <c r="P14" t="n">
         <v>-14.5407</v>
       </c>
-      <c r="O14" t="n">
+      <c r="Q14" t="n">
         <v>-5.69582</v>
       </c>
-      <c r="P14" t="n">
+      <c r="R14" t="n">
         <v>10.1964</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="S14" t="n">
         <v>-14.7707</v>
       </c>
-      <c r="R14" t="n">
+      <c r="T14" t="n">
         <v>-5.15021</v>
       </c>
-      <c r="S14" t="n">
+      <c r="U14" t="n">
         <v>0.8347107438016529</v>
       </c>
-      <c r="T14" t="n">
+      <c r="V14" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1352,54 +1440,60 @@
         <v>0.1419341037735849</v>
       </c>
       <c r="D15" t="n">
+        <v>0.05660377358490566</v>
+      </c>
+      <c r="E15" t="n">
+        <v>3</v>
+      </c>
+      <c r="F15" t="n">
         <v>75.52087611225188</v>
       </c>
-      <c r="E15" t="n">
+      <c r="G15" t="n">
         <v>1.640214361599898e-06</v>
       </c>
-      <c r="F15" t="n">
+      <c r="H15" t="n">
         <v>2.388935291293474e-06</v>
       </c>
-      <c r="G15" t="n">
+      <c r="I15" t="n">
         <v>0.03825088950295154</v>
       </c>
-      <c r="H15" t="n">
+      <c r="J15" t="n">
         <v>0.02213949884829194</v>
       </c>
-      <c r="I15" t="n">
+      <c r="K15" t="n">
         <v>0.01356918613796738</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>0.01175643864382187</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>0.054394362010372</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15" t="n">
         <v>0.05504730358115705</v>
       </c>
-      <c r="M15" t="n">
+      <c r="O15" t="n">
         <v>-11.38823333</v>
       </c>
-      <c r="N15" t="n">
+      <c r="P15" t="n">
         <v>-8.523949999999999</v>
       </c>
-      <c r="O15" t="n">
+      <c r="Q15" t="n">
         <v>-4.35999667</v>
       </c>
-      <c r="P15" t="n">
+      <c r="R15" t="n">
         <v>10.69713333</v>
       </c>
-      <c r="Q15" t="n">
+      <c r="S15" t="n">
         <v>-10.09489667</v>
       </c>
-      <c r="R15" t="n">
+      <c r="T15" t="n">
         <v>-4.99749333</v>
       </c>
-      <c r="S15" t="n">
+      <c r="U15" t="n">
         <v>1.042105263157895</v>
       </c>
-      <c r="T15" t="n">
+      <c r="V15" t="n">
         <v>16</v>
       </c>
     </row>
@@ -1414,54 +1508,60 @@
         <v>0.1003001</v>
       </c>
       <c r="D16" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E16" t="n">
+        <v>2</v>
+      </c>
+      <c r="F16" t="n">
         <v>50.46954140999316</v>
       </c>
-      <c r="E16" t="n">
+      <c r="G16" t="n">
         <v>2.793037866208026e-06</v>
       </c>
-      <c r="F16" t="n">
+      <c r="H16" t="n">
         <v>2.976298613463702e-06</v>
       </c>
-      <c r="G16" t="n">
+      <c r="I16" t="n">
         <v>0.01112419615839869</v>
       </c>
-      <c r="H16" t="n">
+      <c r="J16" t="n">
         <v>0.008134289834289469</v>
       </c>
-      <c r="I16" t="n">
+      <c r="K16" t="n">
         <v>0.02439259814680957</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>0.01858973662106449</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>0.02377191843452984</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16" t="n">
         <v>0.03717288004181118</v>
       </c>
-      <c r="M16" t="n">
+      <c r="O16" t="n">
         <v>-12.9674</v>
       </c>
-      <c r="N16" t="n">
+      <c r="P16" t="n">
         <v>-13.4571</v>
       </c>
-      <c r="O16" t="n">
+      <c r="Q16" t="n">
         <v>-6.99554333</v>
       </c>
-      <c r="P16" t="n">
+      <c r="R16" t="n">
         <v>12.9576</v>
       </c>
-      <c r="Q16" t="n">
+      <c r="S16" t="n">
         <v>-13.7145</v>
       </c>
-      <c r="R16" t="n">
+      <c r="T16" t="n">
         <v>-7.06689667</v>
       </c>
-      <c r="S16" t="n">
+      <c r="U16" t="n">
         <v>1.590491283676704</v>
       </c>
-      <c r="T16" t="n">
+      <c r="V16" t="n">
         <v>22</v>
       </c>
     </row>
@@ -1476,54 +1576,60 @@
         <v>0.2458335784313726</v>
       </c>
       <c r="D17" t="n">
+        <v>0.09803921568627451</v>
+      </c>
+      <c r="E17" t="n">
+        <v>5</v>
+      </c>
+      <c r="F17" t="n">
         <v>53.40451745379877</v>
       </c>
-      <c r="E17" t="n">
+      <c r="G17" t="n">
         <v>1.959384809097809e-06</v>
       </c>
-      <c r="F17" t="n">
+      <c r="H17" t="n">
         <v>3.429960146955196e-06</v>
       </c>
-      <c r="G17" t="n">
+      <c r="I17" t="n">
         <v>0.01100776041339974</v>
       </c>
-      <c r="H17" t="n">
+      <c r="J17" t="n">
         <v>0.01217977698543553</v>
       </c>
-      <c r="I17" t="n">
+      <c r="K17" t="n">
         <v>0.01930359040705206</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>0.0268855098514582</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>0.03783420911138461</v>
       </c>
-      <c r="L17" t="n">
+      <c r="N17" t="n">
         <v>0.008620403017625252</v>
       </c>
-      <c r="M17" t="n">
+      <c r="O17" t="n">
         <v>-13.05863333</v>
       </c>
-      <c r="N17" t="n">
+      <c r="P17" t="n">
         <v>-8.62546</v>
       </c>
-      <c r="O17" t="n">
+      <c r="Q17" t="n">
         <v>-5.31587</v>
       </c>
-      <c r="P17" t="n">
+      <c r="R17" t="n">
         <v>13.20413333</v>
       </c>
-      <c r="Q17" t="n">
+      <c r="S17" t="n">
         <v>-8.706533329999999</v>
       </c>
-      <c r="R17" t="n">
+      <c r="T17" t="n">
         <v>-5.66619667</v>
       </c>
-      <c r="S17" t="n">
+      <c r="U17" t="n">
         <v>1.219512195121951</v>
       </c>
-      <c r="T17" t="n">
+      <c r="V17" t="n">
         <v>19</v>
       </c>
     </row>
@@ -1538,54 +1644,60 @@
         <v>-0.04250004237288136</v>
       </c>
       <c r="D18" t="n">
+        <v>-0.01694915254237288</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F18" t="n">
         <v>67.89048596851471</v>
       </c>
-      <c r="E18" t="n">
+      <c r="G18" t="n">
         <v>2.238548485434535e-06</v>
       </c>
-      <c r="F18" t="n">
+      <c r="H18" t="n">
         <v>1.424149046105301e-06</v>
       </c>
-      <c r="G18" t="n">
+      <c r="I18" t="n">
         <v>0.01973030637551018</v>
       </c>
-      <c r="H18" t="n">
+      <c r="J18" t="n">
         <v>0.01437580656823036</v>
       </c>
-      <c r="I18" t="n">
+      <c r="K18" t="n">
         <v>0.00791969285336281</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>0.00371552380608004</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>0.07416917458117853</v>
       </c>
-      <c r="L18" t="n">
+      <c r="N18" t="n">
         <v>0.07293702373877253</v>
       </c>
-      <c r="M18" t="n">
+      <c r="O18" t="n">
         <v>-11.7759</v>
       </c>
-      <c r="N18" t="n">
+      <c r="P18" t="n">
         <v>-11.6443</v>
       </c>
-      <c r="O18" t="n">
+      <c r="Q18" t="n">
         <v>-6.48165</v>
       </c>
-      <c r="P18" t="n">
+      <c r="R18" t="n">
         <v>10.8079</v>
       </c>
-      <c r="Q18" t="n">
+      <c r="S18" t="n">
         <v>-10.1418</v>
       </c>
-      <c r="R18" t="n">
+      <c r="T18" t="n">
         <v>-3.15784</v>
       </c>
-      <c r="S18" t="n">
+      <c r="U18" t="n">
         <v>1.5</v>
       </c>
-      <c r="T18" t="n">
+      <c r="V18" t="n">
         <v>18</v>
       </c>
     </row>
@@ -1600,54 +1712,60 @@
         <v>0.08646560344827586</v>
       </c>
       <c r="D19" t="n">
+        <v>0.03448275862068965</v>
+      </c>
+      <c r="E19" t="n">
+        <v>2</v>
+      </c>
+      <c r="F19" t="n">
         <v>53.03764544832307</v>
       </c>
-      <c r="E19" t="n">
+      <c r="G19" t="n">
         <v>1.845698456113427e-06</v>
       </c>
-      <c r="F19" t="n">
+      <c r="H19" t="n">
         <v>3.474954970063074e-06</v>
       </c>
-      <c r="G19" t="n">
+      <c r="I19" t="n">
         <v>0.05669135667999137</v>
       </c>
-      <c r="H19" t="n">
+      <c r="J19" t="n">
         <v>0.04090390685624866</v>
       </c>
-      <c r="I19" t="n">
+      <c r="K19" t="n">
         <v>0.0120162675016355</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>0.01070482714981003</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>0.02996221081677182</v>
       </c>
-      <c r="L19" t="n">
+      <c r="N19" t="n">
         <v>0.04054950855762716</v>
       </c>
-      <c r="M19" t="n">
+      <c r="O19" t="n">
         <v>-11.7449</v>
       </c>
-      <c r="N19" t="n">
+      <c r="P19" t="n">
         <v>-9.91764</v>
       </c>
-      <c r="O19" t="n">
+      <c r="Q19" t="n">
         <v>-6.07788</v>
       </c>
-      <c r="P19" t="n">
+      <c r="R19" t="n">
         <v>10.60402667</v>
       </c>
-      <c r="Q19" t="n">
+      <c r="S19" t="n">
         <v>-12.88455</v>
       </c>
-      <c r="R19" t="n">
+      <c r="T19" t="n">
         <v>-9.378761669999999</v>
       </c>
-      <c r="S19" t="n">
+      <c r="U19" t="n">
         <v>1.708860759493671</v>
       </c>
-      <c r="T19" t="n">
+      <c r="V19" t="n">
         <v>17</v>
       </c>
     </row>
@@ -1662,54 +1780,60 @@
         <v>-0.08646560344827586</v>
       </c>
       <c r="D20" t="n">
+        <v>-0.03448275862068965</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-2</v>
+      </c>
+      <c r="F20" t="n">
         <v>68.63518138261465</v>
       </c>
-      <c r="E20" t="n">
+      <c r="G20" t="n">
         <v>2.129512495517922e-06</v>
       </c>
-      <c r="F20" t="n">
+      <c r="H20" t="n">
         <v>1.966705151270089e-06</v>
       </c>
-      <c r="G20" t="n">
+      <c r="I20" t="n">
         <v>0.02087917733295426</v>
       </c>
-      <c r="H20" t="n">
+      <c r="J20" t="n">
         <v>0.007066626465304325</v>
       </c>
-      <c r="I20" t="n">
+      <c r="K20" t="n">
         <v>0.01813619056042049</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>0.0268855098514582</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>0.04143461076126271</v>
       </c>
-      <c r="L20" t="n">
+      <c r="N20" t="n">
         <v>0.01513549711454748</v>
       </c>
-      <c r="M20" t="n">
+      <c r="O20" t="n">
         <v>-14.1498</v>
       </c>
-      <c r="N20" t="n">
+      <c r="P20" t="n">
         <v>-10.7095</v>
       </c>
-      <c r="O20" t="n">
+      <c r="Q20" t="n">
         <v>-5.03943</v>
       </c>
-      <c r="P20" t="n">
+      <c r="R20" t="n">
         <v>11.89263333</v>
       </c>
-      <c r="Q20" t="n">
+      <c r="S20" t="n">
         <v>-12.65246667</v>
       </c>
-      <c r="R20" t="n">
+      <c r="T20" t="n">
         <v>-5.63348333</v>
       </c>
-      <c r="S20" t="n">
+      <c r="U20" t="n">
         <v>1</v>
       </c>
-      <c r="T20" t="n">
+      <c r="V20" t="n">
         <v>20</v>
       </c>
     </row>
@@ -1724,54 +1848,60 @@
         <v>0.09287046296296296</v>
       </c>
       <c r="D21" t="n">
+        <v>0.03703703703703703</v>
+      </c>
+      <c r="E21" t="n">
+        <v>2</v>
+      </c>
+      <c r="F21" t="n">
         <v>59.13757700205339</v>
       </c>
-      <c r="E21" t="n">
+      <c r="G21" t="n">
         <v>3.73815185491646e-06</v>
       </c>
-      <c r="F21" t="n">
+      <c r="H21" t="n">
         <v>1.487937778035179e-06</v>
       </c>
-      <c r="G21" t="n">
+      <c r="I21" t="n">
         <v>0.01763745735393671</v>
       </c>
-      <c r="H21" t="n">
+      <c r="J21" t="n">
         <v>0.02041724491148876</v>
       </c>
-      <c r="I21" t="n">
+      <c r="K21" t="n">
         <v>0.01881493785688488</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>0.00706212894665376</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>0.03830577480076228</v>
       </c>
-      <c r="L21" t="n">
+      <c r="N21" t="n">
         <v>0.0603926830040542</v>
       </c>
-      <c r="M21" t="n">
+      <c r="O21" t="n">
         <v>-12.3452</v>
       </c>
-      <c r="N21" t="n">
+      <c r="P21" t="n">
         <v>-10.54426667</v>
       </c>
-      <c r="O21" t="n">
+      <c r="Q21" t="n">
         <v>-7.54685667</v>
       </c>
-      <c r="P21" t="n">
+      <c r="R21" t="n">
         <v>10.8727</v>
       </c>
-      <c r="Q21" t="n">
+      <c r="S21" t="n">
         <v>-9.976826669999999</v>
       </c>
-      <c r="R21" t="n">
+      <c r="T21" t="n">
         <v>-7.19769333</v>
       </c>
-      <c r="S21" t="n">
+      <c r="U21" t="n">
         <v>1.754299754299754</v>
       </c>
-      <c r="T21" t="n">
+      <c r="V21" t="n">
         <v>23</v>
       </c>
     </row>
@@ -1786,54 +1916,60 @@
         <v>-0.1671668333333333</v>
       </c>
       <c r="D22" t="n">
+        <v>-0.06666666666666667</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F22" t="n">
         <v>68.1697467488022</v>
       </c>
-      <c r="E22" t="n">
+      <c r="G22" t="n">
         <v>1.822757588056061e-06</v>
       </c>
-      <c r="F22" t="n">
+      <c r="H22" t="n">
         <v>2.418290303681402e-06</v>
       </c>
-      <c r="G22" t="n">
+      <c r="I22" t="n">
         <v>0.02150063966106435</v>
       </c>
-      <c r="H22" t="n">
+      <c r="J22" t="n">
         <v>0.02920214531740749</v>
       </c>
-      <c r="I22" t="n">
+      <c r="K22" t="n">
         <v>0.02103316004032893</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>0.02494886699731139</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>0.03502825786946814</v>
       </c>
-      <c r="L22" t="n">
+      <c r="N22" t="n">
         <v>0.01493102876893958</v>
       </c>
-      <c r="M22" t="n">
+      <c r="O22" t="n">
         <v>-11.60846667</v>
       </c>
-      <c r="N22" t="n">
+      <c r="P22" t="n">
         <v>-15.48546667</v>
       </c>
-      <c r="O22" t="n">
+      <c r="Q22" t="n">
         <v>-7.77199667</v>
       </c>
-      <c r="P22" t="n">
+      <c r="R22" t="n">
         <v>10.54853333</v>
       </c>
-      <c r="Q22" t="n">
+      <c r="S22" t="n">
         <v>-14.89473333</v>
       </c>
-      <c r="R22" t="n">
+      <c r="T22" t="n">
         <v>-6.03523</v>
       </c>
-      <c r="S22" t="n">
+      <c r="U22" t="n">
         <v>0.8097354497354498</v>
       </c>
-      <c r="T22" t="n">
+      <c r="V22" t="n">
         <v>27</v>
       </c>
     </row>
@@ -1848,54 +1984,60 @@
         <v>0.04399127192982456</v>
       </c>
       <c r="D23" t="n">
+        <v>0.01754385964912281</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" t="n">
         <v>61.82067077344285</v>
       </c>
-      <c r="E23" t="n">
+      <c r="G23" t="n">
         <v>2.848992625323237e-06</v>
       </c>
-      <c r="F23" t="n">
+      <c r="H23" t="n">
         <v>2.248897773203011e-06</v>
       </c>
-      <c r="G23" t="n">
+      <c r="I23" t="n">
         <v>0.02068645578380127</v>
       </c>
-      <c r="H23" t="n">
+      <c r="J23" t="n">
         <v>0.02272470961055278</v>
       </c>
-      <c r="I23" t="n">
+      <c r="K23" t="n">
         <v>0.01445717110935131</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>0.008362349089022159</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>0.05359867595602481</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23" t="n">
         <v>0.0614440306384112</v>
       </c>
-      <c r="M23" t="n">
+      <c r="O23" t="n">
         <v>-13.86996667</v>
       </c>
-      <c r="N23" t="n">
+      <c r="P23" t="n">
         <v>-13.92016667</v>
       </c>
-      <c r="O23" t="n">
+      <c r="Q23" t="n">
         <v>-8.164849999999999</v>
       </c>
-      <c r="P23" t="n">
+      <c r="R23" t="n">
         <v>11.6174</v>
       </c>
-      <c r="Q23" t="n">
+      <c r="S23" t="n">
         <v>-12.63773333</v>
       </c>
-      <c r="R23" t="n">
+      <c r="T23" t="n">
         <v>-10.43525667</v>
       </c>
-      <c r="S23" t="n">
+      <c r="U23" t="n">
         <v>2.235641891891892</v>
       </c>
-      <c r="T23" t="n">
+      <c r="V23" t="n">
         <v>28</v>
       </c>
     </row>
@@ -1910,54 +2052,60 @@
         <v>-0.1044792708333333</v>
       </c>
       <c r="D24" t="n">
+        <v>-0.04166666666666666</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-2</v>
+      </c>
+      <c r="F24" t="n">
         <v>56.71184120465435</v>
       </c>
-      <c r="E24" t="n">
+      <c r="G24" t="n">
         <v>1.955014513999169e-06</v>
       </c>
-      <c r="F24" t="n">
+      <c r="H24" t="n">
         <v>2.160644750966288e-06</v>
       </c>
-      <c r="G24" t="n">
+      <c r="I24" t="n">
         <v>0.02042749769223278</v>
       </c>
-      <c r="H24" t="n">
+      <c r="J24" t="n">
         <v>0.0107785041173269</v>
       </c>
-      <c r="I24" t="n">
+      <c r="K24" t="n">
         <v>0.01426841645674166</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>0.02139594625013791</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>0.05738951991583347</v>
       </c>
-      <c r="L24" t="n">
+      <c r="N24" t="n">
         <v>0.01976506937531151</v>
       </c>
-      <c r="M24" t="n">
+      <c r="O24" t="n">
         <v>-12.649</v>
       </c>
-      <c r="N24" t="n">
+      <c r="P24" t="n">
         <v>-13.56173333</v>
       </c>
-      <c r="O24" t="n">
+      <c r="Q24" t="n">
         <v>-6.25384</v>
       </c>
-      <c r="P24" t="n">
+      <c r="R24" t="n">
         <v>13.52186667</v>
       </c>
-      <c r="Q24" t="n">
+      <c r="S24" t="n">
         <v>-12.659</v>
       </c>
-      <c r="R24" t="n">
+      <c r="T24" t="n">
         <v>-3.59561</v>
       </c>
-      <c r="S24" t="n">
+      <c r="U24" t="n">
         <v>1.447034425549565</v>
       </c>
-      <c r="T24" t="n">
+      <c r="V24" t="n">
         <v>25</v>
       </c>
     </row>
@@ -1972,54 +2120,60 @@
         <v>-0.2180436956521739</v>
       </c>
       <c r="D25" t="n">
+        <v>-0.08695652173913043</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-4</v>
+      </c>
+      <c r="F25" t="n">
         <v>57.67008898015058</v>
       </c>
-      <c r="E25" t="n">
+      <c r="G25" t="n">
         <v>2.604377994839804e-06</v>
       </c>
-      <c r="F25" t="n">
+      <c r="H25" t="n">
         <v>1.7429218740859e-06</v>
       </c>
-      <c r="G25" t="n">
+      <c r="I25" t="n">
         <v>0.02528550321720775</v>
       </c>
-      <c r="H25" t="n">
+      <c r="J25" t="n">
         <v>0.02128308504163678</v>
       </c>
-      <c r="I25" t="n">
+      <c r="K25" t="n">
         <v>0.01762981718072273</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>0.009434288777398851</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>0.02988185140362056</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25" t="n">
         <v>0.07202921229227803</v>
       </c>
-      <c r="M25" t="n">
+      <c r="O25" t="n">
         <v>-11.7468</v>
       </c>
-      <c r="N25" t="n">
+      <c r="P25" t="n">
         <v>-16.8945</v>
       </c>
-      <c r="O25" t="n">
+      <c r="Q25" t="n">
         <v>-5.92693</v>
       </c>
-      <c r="P25" t="n">
+      <c r="R25" t="n">
         <v>13.0055</v>
       </c>
-      <c r="Q25" t="n">
+      <c r="S25" t="n">
         <v>-12.96556667</v>
       </c>
-      <c r="R25" t="n">
+      <c r="T25" t="n">
         <v>-4.37771333</v>
       </c>
-      <c r="S25" t="n">
+      <c r="U25" t="n">
         <v>1.28125</v>
       </c>
-      <c r="T25" t="n">
+      <c r="V25" t="n">
         <v>31</v>
       </c>
     </row>
@@ -2034,54 +2188,60 @@
         <v>0.04250004237288136</v>
       </c>
       <c r="D26" t="n">
+        <v>0.01694915254237288</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" t="n">
         <v>61.82067077344285</v>
       </c>
-      <c r="E26" t="n">
+      <c r="G26" t="n">
         <v>1.547420318092113e-06</v>
       </c>
-      <c r="F26" t="n">
+      <c r="H26" t="n">
         <v>1.779768891769702e-06</v>
       </c>
-      <c r="G26" t="n">
+      <c r="I26" t="n">
         <v>0.02797838718615199</v>
       </c>
-      <c r="H26" t="n">
+      <c r="J26" t="n">
         <v>0.02677539654467576</v>
       </c>
-      <c r="I26" t="n">
+      <c r="K26" t="n">
         <v>0.006286498485730291</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>0.003987585050034726</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>0.08970821753840465</v>
       </c>
-      <c r="L26" t="n">
+      <c r="N26" t="n">
         <v>0.09385620320595685</v>
       </c>
-      <c r="M26" t="n">
+      <c r="O26" t="n">
         <v>-14.2841</v>
       </c>
-      <c r="N26" t="n">
+      <c r="P26" t="n">
         <v>-13.39746667</v>
       </c>
-      <c r="O26" t="n">
+      <c r="Q26" t="n">
         <v>-6.24885</v>
       </c>
-      <c r="P26" t="n">
+      <c r="R26" t="n">
         <v>11.62493333</v>
       </c>
-      <c r="Q26" t="n">
+      <c r="S26" t="n">
         <v>-11.5264</v>
       </c>
-      <c r="R26" t="n">
+      <c r="T26" t="n">
         <v>-9.531180000000001</v>
       </c>
-      <c r="S26" t="n">
+      <c r="U26" t="n">
         <v>2.328</v>
       </c>
-      <c r="T26" t="n">
+      <c r="V26" t="n">
         <v>26</v>
       </c>
     </row>
@@ -2096,54 +2256,60 @@
         <v>-0.04399127192982456</v>
       </c>
       <c r="D27" t="n">
+        <v>-0.01754385964912281</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F27" t="n">
         <v>51.56194387405886</v>
       </c>
-      <c r="E27" t="n">
+      <c r="G27" t="n">
         <v>2.32162045660618e-06</v>
       </c>
-      <c r="F27" t="n">
+      <c r="H27" t="n">
         <v>2.139884773706745e-06</v>
       </c>
-      <c r="G27" t="n">
+      <c r="I27" t="n">
         <v>0.02696583133726174</v>
       </c>
-      <c r="H27" t="n">
+      <c r="J27" t="n">
         <v>0.01998007702893217</v>
       </c>
-      <c r="I27" t="n">
+      <c r="K27" t="n">
         <v>0.01576925207308448</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>0.0154178438210604</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>0.04765000674554824</v>
       </c>
-      <c r="L27" t="n">
+      <c r="N27" t="n">
         <v>0.07623917698249663</v>
       </c>
-      <c r="M27" t="n">
+      <c r="O27" t="n">
         <v>-15.11663333</v>
       </c>
-      <c r="N27" t="n">
+      <c r="P27" t="n">
         <v>-11.40806667</v>
       </c>
-      <c r="O27" t="n">
+      <c r="Q27" t="n">
         <v>-4.14563667</v>
       </c>
-      <c r="P27" t="n">
+      <c r="R27" t="n">
         <v>14.6262</v>
       </c>
-      <c r="Q27" t="n">
+      <c r="S27" t="n">
         <v>-10.5555</v>
       </c>
-      <c r="R27" t="n">
+      <c r="T27" t="n">
         <v>-4.7568</v>
       </c>
-      <c r="S27" t="n">
+      <c r="U27" t="n">
         <v>0.569620253164557</v>
       </c>
-      <c r="T27" t="n">
+      <c r="V27" t="n">
         <v>30</v>
       </c>
     </row>
@@ -2158,54 +2324,60 @@
         <v>-0.04559095454545455</v>
       </c>
       <c r="D28" t="n">
+        <v>-0.01818181818181818</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F28" t="n">
         <v>65.83162217659138</v>
       </c>
-      <c r="E28" t="n">
+      <c r="G28" t="n">
         <v>2.59907074429456e-06</v>
       </c>
-      <c r="F28" t="n">
+      <c r="H28" t="n">
         <v>2.582385449560866e-06</v>
       </c>
-      <c r="G28" t="n">
+      <c r="I28" t="n">
         <v>0.01984575005771575</v>
       </c>
-      <c r="H28" t="n">
+      <c r="J28" t="n">
         <v>0.01635800294204654</v>
       </c>
-      <c r="I28" t="n">
+      <c r="K28" t="n">
         <v>0.0172454045488509</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>0.006416032040304513</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>0.03724739148092864</v>
       </c>
-      <c r="L28" t="n">
+      <c r="N28" t="n">
         <v>0.1023934925271539</v>
       </c>
-      <c r="M28" t="n">
+      <c r="O28" t="n">
         <v>-13.79536667</v>
       </c>
-      <c r="N28" t="n">
+      <c r="P28" t="n">
         <v>-11.498</v>
       </c>
-      <c r="O28" t="n">
+      <c r="Q28" t="n">
         <v>-5.63382667</v>
       </c>
-      <c r="P28" t="n">
+      <c r="R28" t="n">
         <v>13.36183333</v>
       </c>
-      <c r="Q28" t="n">
+      <c r="S28" t="n">
         <v>-11.39203333</v>
       </c>
-      <c r="R28" t="n">
+      <c r="T28" t="n">
         <v>-4.26551333</v>
       </c>
-      <c r="S28" t="n">
+      <c r="U28" t="n">
         <v>0.9432989690721649</v>
       </c>
-      <c r="T28" t="n">
+      <c r="V28" t="n">
         <v>29</v>
       </c>
     </row>
@@ -2220,54 +2392,60 @@
         <v>-0.3134378125</v>
       </c>
       <c r="D29" t="n">
+        <v>-0.125</v>
+      </c>
+      <c r="E29" t="n">
+        <v>-6</v>
+      </c>
+      <c r="F29" t="n">
         <v>63.67693360711841</v>
       </c>
-      <c r="E29" t="n">
+      <c r="G29" t="n">
         <v>1.968459642227236e-06</v>
       </c>
-      <c r="F29" t="n">
+      <c r="H29" t="n">
         <v>1.840757413765711e-06</v>
       </c>
-      <c r="G29" t="n">
+      <c r="I29" t="n">
         <v>0.02722602248856898</v>
       </c>
-      <c r="H29" t="n">
+      <c r="J29" t="n">
         <v>0.02089529509116746</v>
       </c>
-      <c r="I29" t="n">
+      <c r="K29" t="n">
         <v>0.01314514896664378</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>0.01175643864382187</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>0.04380918801689255</v>
       </c>
-      <c r="L29" t="n">
+      <c r="N29" t="n">
         <v>0.0443620847105126</v>
       </c>
-      <c r="M29" t="n">
+      <c r="O29" t="n">
         <v>-13.73203333</v>
       </c>
-      <c r="N29" t="n">
+      <c r="P29" t="n">
         <v>-10.63436667</v>
       </c>
-      <c r="O29" t="n">
+      <c r="Q29" t="n">
         <v>-4.82503667</v>
       </c>
-      <c r="P29" t="n">
+      <c r="R29" t="n">
         <v>11.3127</v>
       </c>
-      <c r="Q29" t="n">
+      <c r="S29" t="n">
         <v>-11.26193333</v>
       </c>
-      <c r="R29" t="n">
+      <c r="T29" t="n">
         <v>-4.61050667</v>
       </c>
-      <c r="S29" t="n">
+      <c r="U29" t="n">
         <v>1.777142857142857</v>
       </c>
-      <c r="T29" t="n">
+      <c r="V29" t="n">
         <v>34</v>
       </c>
     </row>
@@ -2282,54 +2460,60 @@
         <v>-0.1928848076923077</v>
       </c>
       <c r="D30" t="n">
+        <v>-0.07692307692307693</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-4</v>
+      </c>
+      <c r="F30" t="n">
         <v>60.98288843258042</v>
       </c>
-      <c r="E30" t="n">
+      <c r="G30" t="n">
         <v>3.151412994255022e-06</v>
       </c>
-      <c r="F30" t="n">
+      <c r="H30" t="n">
         <v>2.896654640491441e-06</v>
       </c>
-      <c r="G30" t="n">
+      <c r="I30" t="n">
         <v>0.02240481443222693</v>
       </c>
-      <c r="H30" t="n">
+      <c r="J30" t="n">
         <v>0.02588533559469394</v>
       </c>
-      <c r="I30" t="n">
+      <c r="K30" t="n">
         <v>0.01211455490537237</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>0.01729663465561252</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>0.03445581361004908</v>
       </c>
-      <c r="L30" t="n">
+      <c r="N30" t="n">
         <v>0.04210018468854932</v>
       </c>
-      <c r="M30" t="n">
+      <c r="O30" t="n">
         <v>-11.3767</v>
       </c>
-      <c r="N30" t="n">
+      <c r="P30" t="n">
         <v>-12.4239</v>
       </c>
-      <c r="O30" t="n">
+      <c r="Q30" t="n">
         <v>-9.285830000000001</v>
       </c>
-      <c r="P30" t="n">
+      <c r="R30" t="n">
         <v>10.9659</v>
       </c>
-      <c r="Q30" t="n">
+      <c r="S30" t="n">
         <v>-14.3113</v>
       </c>
-      <c r="R30" t="n">
+      <c r="T30" t="n">
         <v>-7.16282</v>
       </c>
-      <c r="S30" t="n">
+      <c r="U30" t="n">
         <v>0.9361702127659575</v>
       </c>
-      <c r="T30" t="n">
+      <c r="V30" t="n">
         <v>33</v>
       </c>
     </row>
@@ -2344,54 +2528,60 @@
         <v>0.05117352040816327</v>
       </c>
       <c r="D31" t="n">
+        <v>0.02040816326530612</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1</v>
+      </c>
+      <c r="F31" t="n">
         <v>68.83230663928816</v>
       </c>
-      <c r="E31" t="n">
+      <c r="G31" t="n">
         <v>3.632164699339824e-06</v>
       </c>
-      <c r="F31" t="n">
+      <c r="H31" t="n">
         <v>3.765228595172877e-06</v>
       </c>
-      <c r="G31" t="n">
+      <c r="I31" t="n">
         <v>0.01831371721934675</v>
       </c>
-      <c r="H31" t="n">
+      <c r="J31" t="n">
         <v>0.01207855893334333</v>
       </c>
-      <c r="I31" t="n">
+      <c r="K31" t="n">
         <v>0.008796945915070992</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>0.01091777917738386</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>0.04724064658232606</v>
       </c>
-      <c r="L31" t="n">
+      <c r="N31" t="n">
         <v>0.008100755401337621</v>
       </c>
-      <c r="M31" t="n">
+      <c r="O31" t="n">
         <v>-12.8195</v>
       </c>
-      <c r="N31" t="n">
+      <c r="P31" t="n">
         <v>-13.55786667</v>
       </c>
-      <c r="O31" t="n">
+      <c r="Q31" t="n">
         <v>-7.47283333</v>
       </c>
-      <c r="P31" t="n">
+      <c r="R31" t="n">
         <v>10.12206333</v>
       </c>
-      <c r="Q31" t="n">
+      <c r="S31" t="n">
         <v>-15.48273333</v>
       </c>
-      <c r="R31" t="n">
+      <c r="T31" t="n">
         <v>-10.00407667</v>
       </c>
-      <c r="S31" t="n">
+      <c r="U31" t="n">
         <v>1.561379310344828</v>
       </c>
-      <c r="T31" t="n">
+      <c r="V31" t="n">
         <v>39</v>
       </c>
     </row>
@@ -2406,54 +2596,60 @@
         <v>0.08646560344827586</v>
       </c>
       <c r="D32" t="n">
+        <v>0.03448275862068965</v>
+      </c>
+      <c r="E32" t="n">
+        <v>2</v>
+      </c>
+      <c r="F32" t="n">
         <v>77.27036276522929</v>
       </c>
-      <c r="E32" t="n">
+      <c r="G32" t="n">
         <v>3.714927148439726e-06</v>
       </c>
-      <c r="F32" t="n">
+      <c r="H32" t="n">
         <v>2.269761880868725e-06</v>
       </c>
-      <c r="G32" t="n">
+      <c r="I32" t="n">
         <v>0.02007293670307335</v>
       </c>
-      <c r="H32" t="n">
+      <c r="J32" t="n">
         <v>0.01195915053007136</v>
       </c>
-      <c r="I32" t="n">
+      <c r="K32" t="n">
         <v>0.00818773541951714</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>0.002900578017219303</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>0.06519513607813135</v>
       </c>
-      <c r="L32" t="n">
+      <c r="N32" t="n">
         <v>0.09912410085576639</v>
       </c>
-      <c r="M32" t="n">
+      <c r="O32" t="n">
         <v>-12.75453333</v>
       </c>
-      <c r="N32" t="n">
+      <c r="P32" t="n">
         <v>-12.35126667</v>
       </c>
-      <c r="O32" t="n">
+      <c r="Q32" t="n">
         <v>-6.95649333</v>
       </c>
-      <c r="P32" t="n">
+      <c r="R32" t="n">
         <v>12.00175</v>
       </c>
-      <c r="Q32" t="n">
+      <c r="S32" t="n">
         <v>-12.12596667</v>
       </c>
-      <c r="R32" t="n">
+      <c r="T32" t="n">
         <v>-6.64555167</v>
       </c>
-      <c r="S32" t="n">
+      <c r="U32" t="n">
         <v>2.125</v>
       </c>
-      <c r="T32" t="n">
+      <c r="V32" t="n">
         <v>36</v>
       </c>
     </row>
@@ -2468,54 +2664,60 @@
         <v>-0.1857409259259259</v>
       </c>
       <c r="D33" t="n">
+        <v>-0.07407407407407407</v>
+      </c>
+      <c r="E33" t="n">
+        <v>-4</v>
+      </c>
+      <c r="F33" t="n">
         <v>66.08898015058179</v>
       </c>
-      <c r="E33" t="n">
+      <c r="G33" t="n">
         <v>2.695653384333659e-06</v>
       </c>
-      <c r="F33" t="n">
+      <c r="H33" t="n">
         <v>1.796170584070768e-06</v>
       </c>
-      <c r="G33" t="n">
+      <c r="I33" t="n">
         <v>0.02256311806347881</v>
       </c>
-      <c r="H33" t="n">
+      <c r="J33" t="n">
         <v>0.02213949884829194</v>
       </c>
-      <c r="I33" t="n">
+      <c r="K33" t="n">
         <v>0.006041661241963542</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>0.005805077628751766</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>0.06792323080376157</v>
       </c>
-      <c r="L33" t="n">
+      <c r="N33" t="n">
         <v>0.07169165074895888</v>
       </c>
-      <c r="M33" t="n">
+      <c r="O33" t="n">
         <v>-13.17586667</v>
       </c>
-      <c r="N33" t="n">
+      <c r="P33" t="n">
         <v>-11.13383333</v>
       </c>
-      <c r="O33" t="n">
+      <c r="Q33" t="n">
         <v>-5.68196333</v>
       </c>
-      <c r="P33" t="n">
+      <c r="R33" t="n">
         <v>12.16753333</v>
       </c>
-      <c r="Q33" t="n">
+      <c r="S33" t="n">
         <v>-10.86973333</v>
       </c>
-      <c r="R33" t="n">
+      <c r="T33" t="n">
         <v>-4.56679</v>
       </c>
-      <c r="S33" t="n">
+      <c r="U33" t="n">
         <v>1.6</v>
       </c>
-      <c r="T33" t="n">
+      <c r="V33" t="n">
         <v>38</v>
       </c>
     </row>
@@ -2530,54 +2732,60 @@
         <v>-0.4870341394230769</v>
       </c>
       <c r="D34" t="n">
+        <v>-0.1942307692307693</v>
+      </c>
+      <c r="E34" t="n">
+        <v>-10</v>
+      </c>
+      <c r="F34" t="n">
         <v>69.71937029431896</v>
       </c>
-      <c r="E34" t="n">
+      <c r="G34" t="n">
         <v>2.261448996237849e-06</v>
       </c>
-      <c r="F34" t="n">
+      <c r="H34" t="n">
         <v>2.761442524842248e-06</v>
       </c>
-      <c r="G34" t="n">
+      <c r="I34" t="n">
         <v>0.04690282277368672</v>
       </c>
-      <c r="H34" t="n">
+      <c r="J34" t="n">
         <v>0.04864126964291391</v>
       </c>
-      <c r="I34" t="n">
+      <c r="K34" t="n">
         <v>0.01665113090896056</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>0.01638867560377998</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>0.03520154121237699</v>
       </c>
-      <c r="L34" t="n">
+      <c r="N34" t="n">
         <v>0.04399933016124319</v>
       </c>
-      <c r="M34" t="n">
+      <c r="O34" t="n">
         <v>-12.85026667</v>
       </c>
-      <c r="N34" t="n">
+      <c r="P34" t="n">
         <v>-14.89043333</v>
       </c>
-      <c r="O34" t="n">
+      <c r="Q34" t="n">
         <v>-8.446766670000001</v>
       </c>
-      <c r="P34" t="n">
+      <c r="R34" t="n">
         <v>9.049950000000001</v>
       </c>
-      <c r="Q34" t="n">
+      <c r="S34" t="n">
         <v>-15.28753333</v>
       </c>
-      <c r="R34" t="n">
+      <c r="T34" t="n">
         <v>-10.6186</v>
       </c>
-      <c r="S34" t="n">
+      <c r="U34" t="n">
         <v>2.555319793876933</v>
       </c>
-      <c r="T34" t="n">
+      <c r="V34" t="n">
         <v>59</v>
       </c>
     </row>
@@ -2592,54 +2800,60 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
         <v>59.73716632443532</v>
       </c>
-      <c r="E35" t="n">
+      <c r="G35" t="n">
         <v>2.276799913812701e-06</v>
       </c>
-      <c r="F35" t="n">
+      <c r="H35" t="n">
         <v>2.617543669068781e-06</v>
       </c>
-      <c r="G35" t="n">
+      <c r="I35" t="n">
         <v>0.02671661403670236</v>
       </c>
-      <c r="H35" t="n">
+      <c r="J35" t="n">
         <v>0.02013644086236471</v>
       </c>
-      <c r="I35" t="n">
+      <c r="K35" t="n">
         <v>0.01684651814463343</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>0.0159567373922251</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>0.03935085275430151</v>
       </c>
-      <c r="L35" t="n">
+      <c r="N35" t="n">
         <v>0.04165058686866855</v>
       </c>
-      <c r="M35" t="n">
+      <c r="O35" t="n">
         <v>-13.9777</v>
       </c>
-      <c r="N35" t="n">
+      <c r="P35" t="n">
         <v>-16.49306667</v>
       </c>
-      <c r="O35" t="n">
+      <c r="Q35" t="n">
         <v>-6.30278</v>
       </c>
-      <c r="P35" t="n">
+      <c r="R35" t="n">
         <v>13.1396</v>
       </c>
-      <c r="Q35" t="n">
+      <c r="S35" t="n">
         <v>-16.47733333</v>
       </c>
-      <c r="R35" t="n">
+      <c r="T35" t="n">
         <v>-6.78155333</v>
       </c>
-      <c r="S35" t="n">
+      <c r="U35" t="n">
         <v>1.428571428571429</v>
       </c>
-      <c r="T35" t="n">
+      <c r="V35" t="n">
         <v>40</v>
       </c>
     </row>
@@ -2654,54 +2868,60 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
         <v>70.65845311430527</v>
       </c>
-      <c r="E36" t="n">
+      <c r="G36" t="n">
         <v>2.354511774239344e-06</v>
       </c>
-      <c r="F36" t="n">
+      <c r="H36" t="n">
         <v>1.928505143206753e-06</v>
       </c>
-      <c r="G36" t="n">
+      <c r="I36" t="n">
         <v>0.04270696946343376</v>
       </c>
-      <c r="H36" t="n">
+      <c r="J36" t="n">
         <v>0.03665212085176381</v>
       </c>
-      <c r="I36" t="n">
+      <c r="K36" t="n">
         <v>0.009669440539921985</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>0.005806351447116748</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>0.04558984473845861</v>
       </c>
-      <c r="L36" t="n">
+      <c r="N36" t="n">
         <v>0.03157987412070581</v>
       </c>
-      <c r="M36" t="n">
+      <c r="O36" t="n">
         <v>-10.39875667</v>
       </c>
-      <c r="N36" t="n">
+      <c r="P36" t="n">
         <v>-14.98856667</v>
       </c>
-      <c r="O36" t="n">
+      <c r="Q36" t="n">
         <v>-9.510593330000001</v>
       </c>
-      <c r="P36" t="n">
+      <c r="R36" t="n">
         <v>11.33366667</v>
       </c>
-      <c r="Q36" t="n">
+      <c r="S36" t="n">
         <v>-14.4907</v>
       </c>
-      <c r="R36" t="n">
+      <c r="T36" t="n">
         <v>-8.2829</v>
       </c>
-      <c r="S36" t="n">
+      <c r="U36" t="n">
         <v>1.764705882352941</v>
       </c>
-      <c r="T36" t="n">
+      <c r="V36" t="n">
         <v>37</v>
       </c>
     </row>
@@ -2716,54 +2936,60 @@
         <v>-0.04250004237288136</v>
       </c>
       <c r="D37" t="n">
+        <v>-0.01694915254237288</v>
+      </c>
+      <c r="E37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F37" t="n">
         <v>47.28268309377139</v>
       </c>
-      <c r="E37" t="n">
+      <c r="G37" t="n">
         <v>3.651295696231745e-06</v>
       </c>
-      <c r="F37" t="n">
+      <c r="H37" t="n">
         <v>3.733841500974652e-06</v>
       </c>
-      <c r="G37" t="n">
+      <c r="I37" t="n">
         <v>0.0437422077825091</v>
       </c>
-      <c r="H37" t="n">
+      <c r="J37" t="n">
         <v>0.0315631809275561</v>
       </c>
-      <c r="I37" t="n">
+      <c r="K37" t="n">
         <v>0.01331391284892979</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>0.01313047926837949</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>0.04834138289572408</v>
       </c>
-      <c r="L37" t="n">
+      <c r="N37" t="n">
         <v>0.0542801603749082</v>
       </c>
-      <c r="M37" t="n">
+      <c r="O37" t="n">
         <v>-9.635313330000001</v>
       </c>
-      <c r="N37" t="n">
+      <c r="P37" t="n">
         <v>-13.85431667</v>
       </c>
-      <c r="O37" t="n">
+      <c r="Q37" t="n">
         <v>-8.68479</v>
       </c>
-      <c r="P37" t="n">
+      <c r="R37" t="n">
         <v>10.9238</v>
       </c>
-      <c r="Q37" t="n">
+      <c r="S37" t="n">
         <v>-13.49153333</v>
       </c>
-      <c r="R37" t="n">
+      <c r="T37" t="n">
         <v>-7.92569333</v>
       </c>
-      <c r="S37" t="n">
+      <c r="U37" t="n">
         <v>2</v>
       </c>
-      <c r="T37" t="n">
+      <c r="V37" t="n">
         <v>48</v>
       </c>
     </row>
@@ -2778,54 +3004,60 @@
         <v>-0.09644240384615387</v>
       </c>
       <c r="D38" t="n">
+        <v>-0.03846153846153846</v>
+      </c>
+      <c r="E38" t="n">
+        <v>-2</v>
+      </c>
+      <c r="F38" t="n">
         <v>61.65639972621492</v>
       </c>
-      <c r="E38" t="n">
+      <c r="G38" t="n">
         <v>1.705431108073606e-06</v>
       </c>
-      <c r="F38" t="n">
+      <c r="H38" t="n">
         <v>2.388935291293474e-06</v>
       </c>
-      <c r="G38" t="n">
+      <c r="I38" t="n">
         <v>0.02794239621245542</v>
       </c>
-      <c r="H38" t="n">
+      <c r="J38" t="n">
         <v>0.02213949884829194</v>
       </c>
-      <c r="I38" t="n">
+      <c r="K38" t="n">
         <v>0.00857823999128034</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>0.01175643864382187</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>0.07516482451783638</v>
       </c>
-      <c r="L38" t="n">
+      <c r="N38" t="n">
         <v>0.05504730358115705</v>
       </c>
-      <c r="M38" t="n">
+      <c r="O38" t="n">
         <v>-11.44366667</v>
       </c>
-      <c r="N38" t="n">
+      <c r="P38" t="n">
         <v>-13.88246667</v>
       </c>
-      <c r="O38" t="n">
+      <c r="Q38" t="n">
         <v>-7.21063333</v>
       </c>
-      <c r="P38" t="n">
+      <c r="R38" t="n">
         <v>10.7148</v>
       </c>
-      <c r="Q38" t="n">
+      <c r="S38" t="n">
         <v>-13.90826667</v>
       </c>
-      <c r="R38" t="n">
+      <c r="T38" t="n">
         <v>-7.43287333</v>
       </c>
-      <c r="S38" t="n">
+      <c r="U38" t="n">
         <v>1.895952321827663</v>
       </c>
-      <c r="T38" t="n">
+      <c r="V38" t="n">
         <v>43</v>
       </c>
     </row>
@@ -2840,54 +3072,60 @@
         <v>0.04250004237288136</v>
       </c>
       <c r="D39" t="n">
+        <v>0.01694915254237288</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1</v>
+      </c>
+      <c r="F39" t="n">
         <v>71.66598220396989</v>
       </c>
-      <c r="E39" t="n">
+      <c r="G39" t="n">
         <v>3.778993876164996e-06</v>
       </c>
-      <c r="F39" t="n">
+      <c r="H39" t="n">
         <v>3.434054708876891e-06</v>
       </c>
-      <c r="G39" t="n">
+      <c r="I39" t="n">
         <v>0.01663937399970247</v>
       </c>
-      <c r="H39" t="n">
+      <c r="J39" t="n">
         <v>0.01527362792775006</v>
       </c>
-      <c r="I39" t="n">
+      <c r="K39" t="n">
         <v>0.006499493325498351</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>0.0154510315136071</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>0.06953371781967879</v>
       </c>
-      <c r="L39" t="n">
+      <c r="N39" t="n">
         <v>0.04958381527269128</v>
       </c>
-      <c r="M39" t="n">
+      <c r="O39" t="n">
         <v>-11.3492</v>
       </c>
-      <c r="N39" t="n">
+      <c r="P39" t="n">
         <v>-14.5848</v>
       </c>
-      <c r="O39" t="n">
+      <c r="Q39" t="n">
         <v>-8.131259999999999</v>
       </c>
-      <c r="P39" t="n">
+      <c r="R39" t="n">
         <v>12.6669</v>
       </c>
-      <c r="Q39" t="n">
+      <c r="S39" t="n">
         <v>-12.3525</v>
       </c>
-      <c r="R39" t="n">
+      <c r="T39" t="n">
         <v>-5.00913</v>
       </c>
-      <c r="S39" t="n">
+      <c r="U39" t="n">
         <v>2.323529411764706</v>
       </c>
-      <c r="T39" t="n">
+      <c r="V39" t="n">
         <v>49</v>
       </c>
     </row>
@@ -2902,54 +3140,60 @@
         <v>-0.2365568396226415</v>
       </c>
       <c r="D40" t="n">
+        <v>-0.09433962264150944</v>
+      </c>
+      <c r="E40" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F40" t="n">
         <v>73.36892539356604</v>
       </c>
-      <c r="E40" t="n">
+      <c r="G40" t="n">
         <v>3.26850105472754e-06</v>
       </c>
-      <c r="F40" t="n">
+      <c r="H40" t="n">
         <v>3.012636743017779e-06</v>
       </c>
-      <c r="G40" t="n">
+      <c r="I40" t="n">
         <v>0.02615724132167862</v>
       </c>
-      <c r="H40" t="n">
+      <c r="J40" t="n">
         <v>0.01784107675196667</v>
       </c>
-      <c r="I40" t="n">
+      <c r="K40" t="n">
         <v>0.009965770867346324</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>0.01017794897799744</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>0.07923742393825137</v>
       </c>
-      <c r="L40" t="n">
+      <c r="N40" t="n">
         <v>0.08826309206201718</v>
       </c>
-      <c r="M40" t="n">
+      <c r="O40" t="n">
         <v>-12.418</v>
       </c>
-      <c r="N40" t="n">
+      <c r="P40" t="n">
         <v>-12.1278</v>
       </c>
-      <c r="O40" t="n">
+      <c r="Q40" t="n">
         <v>-7.64492667</v>
       </c>
-      <c r="P40" t="n">
+      <c r="R40" t="n">
         <v>12.44546667</v>
       </c>
-      <c r="Q40" t="n">
+      <c r="S40" t="n">
         <v>-11.65506667</v>
       </c>
-      <c r="R40" t="n">
+      <c r="T40" t="n">
         <v>-6.96578333</v>
       </c>
-      <c r="S40" t="n">
+      <c r="U40" t="n">
         <v>2.841428571428572</v>
       </c>
-      <c r="T40" t="n">
+      <c r="V40" t="n">
         <v>41</v>
       </c>
     </row>
@@ -2964,54 +3208,60 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
         <v>73.83709787816564</v>
       </c>
-      <c r="E41" t="n">
+      <c r="G41" t="n">
         <v>2.890582552751691e-06</v>
       </c>
-      <c r="F41" t="n">
+      <c r="H41" t="n">
         <v>3.778993876164996e-06</v>
       </c>
-      <c r="G41" t="n">
+      <c r="I41" t="n">
         <v>0.01163069370946545</v>
       </c>
-      <c r="H41" t="n">
+      <c r="J41" t="n">
         <v>0.01061733270355883</v>
       </c>
-      <c r="I41" t="n">
+      <c r="K41" t="n">
         <v>0.009095011295457733</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>0.01707839607591153</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>0.03189748625242807</v>
       </c>
-      <c r="L41" t="n">
+      <c r="N41" t="n">
         <v>0.03618937700072767</v>
       </c>
-      <c r="M41" t="n">
+      <c r="O41" t="n">
         <v>-11.8109</v>
       </c>
-      <c r="N41" t="n">
+      <c r="P41" t="n">
         <v>-11.7688</v>
       </c>
-      <c r="O41" t="n">
+      <c r="Q41" t="n">
         <v>-6.68803</v>
       </c>
-      <c r="P41" t="n">
+      <c r="R41" t="n">
         <v>10.3355</v>
       </c>
-      <c r="Q41" t="n">
+      <c r="S41" t="n">
         <v>-12.2159</v>
       </c>
-      <c r="R41" t="n">
+      <c r="T41" t="n">
         <v>-7.53478</v>
       </c>
-      <c r="S41" t="n">
+      <c r="U41" t="n">
         <v>1.62962962962963</v>
       </c>
-      <c r="T41" t="n">
+      <c r="V41" t="n">
         <v>42</v>
       </c>
     </row>
@@ -3026,54 +3276,60 @@
         <v>0.04250004237288136</v>
       </c>
       <c r="D42" t="n">
+        <v>0.01694915254237288</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1</v>
+      </c>
+      <c r="F42" t="n">
         <v>73.68377823408625</v>
       </c>
-      <c r="E42" t="n">
+      <c r="G42" t="n">
         <v>2.988263519625051e-06</v>
       </c>
-      <c r="F42" t="n">
+      <c r="H42" t="n">
         <v>2.037758168975614e-06</v>
       </c>
-      <c r="G42" t="n">
+      <c r="I42" t="n">
         <v>0.03346531410162976</v>
       </c>
-      <c r="H42" t="n">
+      <c r="J42" t="n">
         <v>0.0042076409851773</v>
       </c>
-      <c r="I42" t="n">
+      <c r="K42" t="n">
         <v>0.01361097410602232</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>0.0005630095076326784</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>0.03087514562589602</v>
       </c>
-      <c r="L42" t="n">
+      <c r="N42" t="n">
         <v>0.07131681076978139</v>
       </c>
-      <c r="M42" t="n">
+      <c r="O42" t="n">
         <v>-13.0922</v>
       </c>
-      <c r="N42" t="n">
+      <c r="P42" t="n">
         <v>-15.1598</v>
       </c>
-      <c r="O42" t="n">
+      <c r="Q42" t="n">
         <v>-6.30294</v>
       </c>
-      <c r="P42" t="n">
+      <c r="R42" t="n">
         <v>12.2111</v>
       </c>
-      <c r="Q42" t="n">
+      <c r="S42" t="n">
         <v>-14.3728</v>
       </c>
-      <c r="R42" t="n">
+      <c r="T42" t="n">
         <v>-8.54485</v>
       </c>
-      <c r="S42" t="n">
+      <c r="U42" t="n">
         <v>1.237037037037037</v>
       </c>
-      <c r="T42" t="n">
+      <c r="V42" t="n">
         <v>45</v>
       </c>
     </row>
@@ -3088,54 +3344,60 @@
         <v>-0.4870341394230769</v>
       </c>
       <c r="D43" t="n">
+        <v>-0.1942307692307693</v>
+      </c>
+      <c r="E43" t="n">
+        <v>-10</v>
+      </c>
+      <c r="F43" t="n">
         <v>66.86379192334017</v>
       </c>
-      <c r="E43" t="n">
+      <c r="G43" t="n">
         <v>2.12490491856525e-06</v>
       </c>
-      <c r="F43" t="n">
+      <c r="H43" t="n">
         <v>2.388935291293474e-06</v>
       </c>
-      <c r="G43" t="n">
+      <c r="I43" t="n">
         <v>0.02277380098266908</v>
       </c>
-      <c r="H43" t="n">
+      <c r="J43" t="n">
         <v>0.02134863586769413</v>
       </c>
-      <c r="I43" t="n">
+      <c r="K43" t="n">
         <v>0.005288157190042449</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>0.01441133435650243</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>0.1176191429481596</v>
       </c>
-      <c r="L43" t="n">
+      <c r="N43" t="n">
         <v>0.05711409058125008</v>
       </c>
-      <c r="M43" t="n">
+      <c r="O43" t="n">
         <v>-13.474</v>
       </c>
-      <c r="N43" t="n">
+      <c r="P43" t="n">
         <v>-12.97066667</v>
       </c>
-      <c r="O43" t="n">
+      <c r="Q43" t="n">
         <v>-6.42222333</v>
       </c>
-      <c r="P43" t="n">
+      <c r="R43" t="n">
         <v>11.68203333</v>
       </c>
-      <c r="Q43" t="n">
+      <c r="S43" t="n">
         <v>-12.4799</v>
       </c>
-      <c r="R43" t="n">
+      <c r="T43" t="n">
         <v>-5.31329</v>
       </c>
-      <c r="S43" t="n">
+      <c r="U43" t="n">
         <v>1.272313296903461</v>
       </c>
-      <c r="T43" t="n">
+      <c r="V43" t="n">
         <v>44</v>
       </c>
     </row>
@@ -3150,54 +3412,60 @@
         <v>-0.3009003</v>
       </c>
       <c r="D44" t="n">
+        <v>-0.12</v>
+      </c>
+      <c r="E44" t="n">
+        <v>-6</v>
+      </c>
+      <c r="F44" t="n">
         <v>55.23340177960301</v>
       </c>
-      <c r="E44" t="n">
+      <c r="G44" t="n">
         <v>2.378547639424829e-06</v>
       </c>
-      <c r="F44" t="n">
+      <c r="H44" t="n">
         <v>2.591667010522015e-06</v>
       </c>
-      <c r="G44" t="n">
+      <c r="I44" t="n">
         <v>0.04348539304708085</v>
       </c>
-      <c r="H44" t="n">
+      <c r="J44" t="n">
         <v>0.01668906703385094</v>
       </c>
-      <c r="I44" t="n">
+      <c r="K44" t="n">
         <v>0.01952554083172451</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>0.007006982122183675</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>0.04285229670293757</v>
       </c>
-      <c r="L44" t="n">
+      <c r="N44" t="n">
         <v>0.03488879965949796</v>
       </c>
-      <c r="M44" t="n">
+      <c r="O44" t="n">
         <v>-11.4571</v>
       </c>
-      <c r="N44" t="n">
+      <c r="P44" t="n">
         <v>-14.8978</v>
       </c>
-      <c r="O44" t="n">
+      <c r="Q44" t="n">
         <v>-8.225020000000001</v>
       </c>
-      <c r="P44" t="n">
+      <c r="R44" t="n">
         <v>10.6208</v>
       </c>
-      <c r="Q44" t="n">
+      <c r="S44" t="n">
         <v>-13.438</v>
       </c>
-      <c r="R44" t="n">
+      <c r="T44" t="n">
         <v>-5.47337</v>
       </c>
-      <c r="S44" t="n">
+      <c r="U44" t="n">
         <v>2.333333333333333</v>
       </c>
-      <c r="T44" t="n">
+      <c r="V44" t="n">
         <v>47</v>
       </c>
     </row>
@@ -3212,54 +3480,60 @@
         <v>-0.3441670098039216</v>
       </c>
       <c r="D45" t="n">
+        <v>-0.1372549019607843</v>
+      </c>
+      <c r="E45" t="n">
+        <v>-7</v>
+      </c>
+      <c r="F45" t="n">
         <v>53.54688569472964</v>
       </c>
-      <c r="E45" t="n">
+      <c r="G45" t="n">
         <v>3.778993876164996e-06</v>
       </c>
-      <c r="F45" t="n">
+      <c r="H45" t="n">
         <v>3.778993876164996e-06</v>
       </c>
-      <c r="G45" t="n">
+      <c r="I45" t="n">
         <v>0.02233761720403071</v>
       </c>
-      <c r="H45" t="n">
+      <c r="J45" t="n">
         <v>0.01898145518132893</v>
       </c>
-      <c r="I45" t="n">
+      <c r="K45" t="n">
         <v>0.01130177206563051</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>0.006001428740786051</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>0.039627363078196</v>
       </c>
-      <c r="L45" t="n">
+      <c r="N45" t="n">
         <v>0.1053204667597975</v>
       </c>
-      <c r="M45" t="n">
+      <c r="O45" t="n">
         <v>-14.09253333</v>
       </c>
-      <c r="N45" t="n">
+      <c r="P45" t="n">
         <v>-13.25156667</v>
       </c>
-      <c r="O45" t="n">
+      <c r="Q45" t="n">
         <v>-6.11841333</v>
       </c>
-      <c r="P45" t="n">
+      <c r="R45" t="n">
         <v>11.79623333</v>
       </c>
-      <c r="Q45" t="n">
+      <c r="S45" t="n">
         <v>-13.22083333</v>
       </c>
-      <c r="R45" t="n">
+      <c r="T45" t="n">
         <v>-7.21795333</v>
       </c>
-      <c r="S45" t="n">
+      <c r="U45" t="n">
         <v>0.9010989010989011</v>
       </c>
-      <c r="T45" t="n">
+      <c r="V45" t="n">
         <v>46</v>
       </c>
     </row>
@@ -3274,54 +3548,60 @@
         <v>-0.08955366071428572</v>
       </c>
       <c r="D46" t="n">
+        <v>-0.03571428571428571</v>
+      </c>
+      <c r="E46" t="n">
+        <v>-2</v>
+      </c>
+      <c r="F46" t="n">
         <v>70.75154004106776</v>
       </c>
-      <c r="E46" t="n">
+      <c r="G46" t="n">
         <v>3.778993876164996e-06</v>
       </c>
-      <c r="F46" t="n">
+      <c r="H46" t="n">
         <v>3.197807574985853e-06</v>
       </c>
-      <c r="G46" t="n">
+      <c r="I46" t="n">
         <v>0.01659071983908159</v>
       </c>
-      <c r="H46" t="n">
+      <c r="J46" t="n">
         <v>0.02848916873284277</v>
       </c>
-      <c r="I46" t="n">
+      <c r="K46" t="n">
         <v>0.0268855098514582</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>0.02355291179666298</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>0.0115623285063628</v>
       </c>
-      <c r="L46" t="n">
+      <c r="N46" t="n">
         <v>0.03303354601210409</v>
       </c>
-      <c r="M46" t="n">
+      <c r="O46" t="n">
         <v>-12.5069</v>
       </c>
-      <c r="N46" t="n">
+      <c r="P46" t="n">
         <v>-15.932</v>
       </c>
-      <c r="O46" t="n">
+      <c r="Q46" t="n">
         <v>-8.05579</v>
       </c>
-      <c r="P46" t="n">
+      <c r="R46" t="n">
         <v>10.44096</v>
       </c>
-      <c r="Q46" t="n">
+      <c r="S46" t="n">
         <v>-15.09966667</v>
       </c>
-      <c r="R46" t="n">
+      <c r="T46" t="n">
         <v>-8.558073329999999</v>
       </c>
-      <c r="S46" t="n">
+      <c r="U46" t="n">
         <v>2.519685039370079</v>
       </c>
-      <c r="T46" t="n">
+      <c r="V46" t="n">
         <v>53</v>
       </c>
     </row>
@@ -3336,54 +3616,60 @@
         <v>-0.2279547727272727</v>
       </c>
       <c r="D47" t="n">
+        <v>-0.09090909090909091</v>
+      </c>
+      <c r="E47" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F47" t="n">
         <v>73.11978097193703</v>
       </c>
-      <c r="E47" t="n">
+      <c r="G47" t="n">
         <v>3.720057629063876e-06</v>
       </c>
-      <c r="F47" t="n">
+      <c r="H47" t="n">
         <v>3.754948354092223e-06</v>
       </c>
-      <c r="G47" t="n">
+      <c r="I47" t="n">
         <v>0.02725552174308247</v>
       </c>
-      <c r="H47" t="n">
+      <c r="J47" t="n">
         <v>0.0102307059556781</v>
       </c>
-      <c r="I47" t="n">
+      <c r="K47" t="n">
         <v>0.0176354815329452</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>0.01244932320671035</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>0.0318257793909625</v>
       </c>
-      <c r="L47" t="n">
+      <c r="N47" t="n">
         <v>0.05042017303481875</v>
       </c>
-      <c r="M47" t="n">
+      <c r="O47" t="n">
         <v>-10.03112</v>
       </c>
-      <c r="N47" t="n">
+      <c r="P47" t="n">
         <v>-15.04813333</v>
       </c>
-      <c r="O47" t="n">
+      <c r="Q47" t="n">
         <v>-10.44793333</v>
       </c>
-      <c r="P47" t="n">
+      <c r="R47" t="n">
         <v>11.4486</v>
       </c>
-      <c r="Q47" t="n">
+      <c r="S47" t="n">
         <v>-13.28026667</v>
       </c>
-      <c r="R47" t="n">
+      <c r="T47" t="n">
         <v>-9.377103330000001</v>
       </c>
-      <c r="S47" t="n">
+      <c r="U47" t="n">
         <v>0.9016393442622951</v>
       </c>
-      <c r="T47" t="n">
+      <c r="V47" t="n">
         <v>51</v>
       </c>
     </row>
@@ -3398,54 +3684,60 @@
         <v>-0.1319738157894737</v>
       </c>
       <c r="D48" t="n">
+        <v>-0.05263157894736842</v>
+      </c>
+      <c r="E48" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F48" t="n">
         <v>71.29089664613278</v>
       </c>
-      <c r="E48" t="n">
+      <c r="G48" t="n">
         <v>3.778993876164996e-06</v>
       </c>
-      <c r="F48" t="n">
+      <c r="H48" t="n">
         <v>3.076207804382067e-06</v>
       </c>
-      <c r="G48" t="n">
+      <c r="I48" t="n">
         <v>0.05669135667999137</v>
       </c>
-      <c r="H48" t="n">
+      <c r="J48" t="n">
         <v>0.03409427247053926</v>
       </c>
-      <c r="I48" t="n">
+      <c r="K48" t="n">
         <v>0.01427869812055963</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>0.006257461736007046</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>0.03581267999066481</v>
       </c>
-      <c r="L48" t="n">
+      <c r="N48" t="n">
         <v>0.06932382299039649</v>
       </c>
-      <c r="M48" t="n">
+      <c r="O48" t="n">
         <v>-11.1517</v>
       </c>
-      <c r="N48" t="n">
+      <c r="P48" t="n">
         <v>-16.256</v>
       </c>
-      <c r="O48" t="n">
+      <c r="Q48" t="n">
         <v>-9.654339999999999</v>
       </c>
-      <c r="P48" t="n">
+      <c r="R48" t="n">
         <v>10.39520667</v>
       </c>
-      <c r="Q48" t="n">
+      <c r="S48" t="n">
         <v>-15.3325</v>
       </c>
-      <c r="R48" t="n">
+      <c r="T48" t="n">
         <v>-10.14900667</v>
       </c>
-      <c r="S48" t="n">
+      <c r="U48" t="n">
         <v>6.319743589743589</v>
       </c>
-      <c r="T48" t="n">
+      <c r="V48" t="n">
         <v>57</v>
       </c>
     </row>
@@ -3460,54 +3752,60 @@
         <v>-0.04916671568627452</v>
       </c>
       <c r="D49" t="n">
+        <v>-0.0196078431372549</v>
+      </c>
+      <c r="E49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F49" t="n">
         <v>75.564681724846</v>
       </c>
-      <c r="E49" t="n">
+      <c r="G49" t="n">
         <v>1.603309923857643e-06</v>
       </c>
-      <c r="F49" t="n">
+      <c r="H49" t="n">
         <v>3.610780528135085e-06</v>
       </c>
-      <c r="G49" t="n">
+      <c r="I49" t="n">
         <v>0.01297704705396211</v>
       </c>
-      <c r="H49" t="n">
+      <c r="J49" t="n">
         <v>0.02141570312218867</v>
       </c>
-      <c r="I49" t="n">
+      <c r="K49" t="n">
         <v>0.002401229864608592</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>0.01622463017404129</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>0.07373656596061308</v>
       </c>
-      <c r="L49" t="n">
+      <c r="N49" t="n">
         <v>0.04029957561058151</v>
       </c>
-      <c r="M49" t="n">
+      <c r="O49" t="n">
         <v>-10.83886667</v>
       </c>
-      <c r="N49" t="n">
+      <c r="P49" t="n">
         <v>-12.75576667</v>
       </c>
-      <c r="O49" t="n">
+      <c r="Q49" t="n">
         <v>-5.43362667</v>
       </c>
-      <c r="P49" t="n">
+      <c r="R49" t="n">
         <v>12.45516667</v>
       </c>
-      <c r="Q49" t="n">
+      <c r="S49" t="n">
         <v>-10.99766667</v>
       </c>
-      <c r="R49" t="n">
+      <c r="T49" t="n">
         <v>-5.71423667</v>
       </c>
-      <c r="S49" t="n">
+      <c r="U49" t="n">
         <v>1.664839070724182</v>
       </c>
-      <c r="T49" t="n">
+      <c r="V49" t="n">
         <v>50</v>
       </c>
     </row>
@@ -3522,54 +3820,60 @@
         <v>0.04250004237288136</v>
       </c>
       <c r="D50" t="n">
+        <v>0.01694915254237288</v>
+      </c>
+      <c r="E50" t="n">
+        <v>1</v>
+      </c>
+      <c r="F50" t="n">
         <v>66.0561259411362</v>
       </c>
-      <c r="E50" t="n">
+      <c r="G50" t="n">
         <v>3.631252846912466e-06</v>
       </c>
-      <c r="F50" t="n">
+      <c r="H50" t="n">
         <v>2.173729864331862e-06</v>
       </c>
-      <c r="G50" t="n">
+      <c r="I50" t="n">
         <v>0.03239290207650161</v>
       </c>
-      <c r="H50" t="n">
+      <c r="J50" t="n">
         <v>0.02373956820173897</v>
       </c>
-      <c r="I50" t="n">
+      <c r="K50" t="n">
         <v>0.01306480449458881</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>0.01257455130432952</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>0.03897025908876599</v>
       </c>
-      <c r="L50" t="n">
+      <c r="N50" t="n">
         <v>0.04641365725948696</v>
       </c>
-      <c r="M50" t="n">
+      <c r="O50" t="n">
         <v>-12.9968</v>
       </c>
-      <c r="N50" t="n">
+      <c r="P50" t="n">
         <v>-14.0361</v>
       </c>
-      <c r="O50" t="n">
+      <c r="Q50" t="n">
         <v>-6.18204</v>
       </c>
-      <c r="P50" t="n">
+      <c r="R50" t="n">
         <v>14.0381</v>
       </c>
-      <c r="Q50" t="n">
+      <c r="S50" t="n">
         <v>-10.6427</v>
       </c>
-      <c r="R50" t="n">
+      <c r="T50" t="n">
         <v>-6.13453</v>
       </c>
-      <c r="S50" t="n">
+      <c r="U50" t="n">
         <v>3</v>
       </c>
-      <c r="T50" t="n">
+      <c r="V50" t="n">
         <v>52</v>
       </c>
     </row>
@@ -3584,54 +3888,60 @@
         <v>-0.08088717741935485</v>
       </c>
       <c r="D51" t="n">
+        <v>-0.03225806451612903</v>
+      </c>
+      <c r="E51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F51" t="n">
         <v>73.94661190965093</v>
       </c>
-      <c r="E51" t="n">
+      <c r="G51" t="n">
         <v>3.189476431015024e-06</v>
       </c>
-      <c r="F51" t="n">
+      <c r="H51" t="n">
         <v>3.778993876164996e-06</v>
       </c>
-      <c r="G51" t="n">
+      <c r="I51" t="n">
         <v>0.01127694436446802</v>
       </c>
-      <c r="H51" t="n">
+      <c r="J51" t="n">
         <v>0.02335166111844188</v>
       </c>
-      <c r="I51" t="n">
+      <c r="K51" t="n">
         <v>0.004614043258096834</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>0.01600197428558378</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>0.0704122188639916</v>
       </c>
-      <c r="L51" t="n">
+      <c r="N51" t="n">
         <v>0.06092019694553143</v>
       </c>
-      <c r="M51" t="n">
+      <c r="O51" t="n">
         <v>-13.3149</v>
       </c>
-      <c r="N51" t="n">
+      <c r="P51" t="n">
         <v>-13.3238</v>
       </c>
-      <c r="O51" t="n">
+      <c r="Q51" t="n">
         <v>-6.74303</v>
       </c>
-      <c r="P51" t="n">
+      <c r="R51" t="n">
         <v>11.4754</v>
       </c>
-      <c r="Q51" t="n">
+      <c r="S51" t="n">
         <v>-10.1119</v>
       </c>
-      <c r="R51" t="n">
+      <c r="T51" t="n">
         <v>-5.85089</v>
       </c>
-      <c r="S51" t="n">
+      <c r="U51" t="n">
         <v>2.44</v>
       </c>
-      <c r="T51" t="n">
+      <c r="V51" t="n">
         <v>54</v>
       </c>
     </row>
@@ -3646,54 +3956,60 @@
         <v>-0.08646560344827586</v>
       </c>
       <c r="D52" t="n">
+        <v>-0.03448275862068965</v>
+      </c>
+      <c r="E52" t="n">
+        <v>-2</v>
+      </c>
+      <c r="F52" t="n">
         <v>70.96509240246407</v>
       </c>
-      <c r="E52" t="n">
+      <c r="G52" t="n">
         <v>3.264328309180285e-06</v>
       </c>
-      <c r="F52" t="n">
+      <c r="H52" t="n">
         <v>1.20274478816515e-06</v>
       </c>
-      <c r="G52" t="n">
+      <c r="I52" t="n">
         <v>0.01509370122140498</v>
       </c>
-      <c r="H52" t="n">
+      <c r="J52" t="n">
         <v>0.03345244718162697</v>
       </c>
-      <c r="I52" t="n">
+      <c r="K52" t="n">
         <v>0.01853193925956582</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>0.004207015691440128</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>0.03449121894232016</v>
       </c>
-      <c r="L52" t="n">
+      <c r="N52" t="n">
         <v>0.05437064818683032</v>
       </c>
-      <c r="M52" t="n">
+      <c r="O52" t="n">
         <v>-9.9351</v>
       </c>
-      <c r="N52" t="n">
+      <c r="P52" t="n">
         <v>-13.6163</v>
       </c>
-      <c r="O52" t="n">
+      <c r="Q52" t="n">
         <v>-9.481009999999999</v>
       </c>
-      <c r="P52" t="n">
+      <c r="R52" t="n">
         <v>9.88137</v>
       </c>
-      <c r="Q52" t="n">
+      <c r="S52" t="n">
         <v>-13.6138</v>
       </c>
-      <c r="R52" t="n">
+      <c r="T52" t="n">
         <v>-10.5423</v>
       </c>
-      <c r="S52" t="n">
+      <c r="U52" t="n">
         <v>1.95</v>
       </c>
-      <c r="T52" t="n">
+      <c r="V52" t="n">
         <v>58</v>
       </c>
     </row>
@@ -3708,54 +4024,60 @@
         <v>0</v>
       </c>
       <c r="D53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" t="n">
         <v>65.02669404517454</v>
       </c>
-      <c r="E53" t="n">
+      <c r="G53" t="n">
         <v>2.0547350859916e-06</v>
       </c>
-      <c r="F53" t="n">
+      <c r="H53" t="n">
         <v>2.310303721859268e-06</v>
       </c>
-      <c r="G53" t="n">
+      <c r="I53" t="n">
         <v>0.02198528314322951</v>
       </c>
-      <c r="H53" t="n">
+      <c r="J53" t="n">
         <v>0.01310152672108938</v>
       </c>
-      <c r="I53" t="n">
+      <c r="K53" t="n">
         <v>0.009714278224445398</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>0.01239292460117005</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>0.06066825114960174</v>
       </c>
-      <c r="L53" t="n">
+      <c r="N53" t="n">
         <v>0.05388052653447615</v>
       </c>
-      <c r="M53" t="n">
+      <c r="O53" t="n">
         <v>-10.95836667</v>
       </c>
-      <c r="N53" t="n">
+      <c r="P53" t="n">
         <v>-14.07</v>
       </c>
-      <c r="O53" t="n">
+      <c r="Q53" t="n">
         <v>-6.04875</v>
       </c>
-      <c r="P53" t="n">
+      <c r="R53" t="n">
         <v>9.00944</v>
       </c>
-      <c r="Q53" t="n">
+      <c r="S53" t="n">
         <v>-12.865</v>
       </c>
-      <c r="R53" t="n">
+      <c r="T53" t="n">
         <v>-5.49677</v>
       </c>
-      <c r="S53" t="n">
+      <c r="U53" t="n">
         <v>0.75</v>
       </c>
-      <c r="T53" t="n">
+      <c r="V53" t="n">
         <v>55</v>
       </c>
     </row>
@@ -3770,54 +4092,60 @@
         <v>-0.2279547727272727</v>
       </c>
       <c r="D54" t="n">
+        <v>-0.09090909090909091</v>
+      </c>
+      <c r="E54" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F54" t="n">
         <v>71.41136208076659</v>
       </c>
-      <c r="E54" t="n">
+      <c r="G54" t="n">
         <v>1.990009132051631e-06</v>
       </c>
-      <c r="F54" t="n">
+      <c r="H54" t="n">
         <v>1.828336908042224e-06</v>
       </c>
-      <c r="G54" t="n">
+      <c r="I54" t="n">
         <v>0.01716554067659524</v>
       </c>
-      <c r="H54" t="n">
+      <c r="J54" t="n">
         <v>0.02601064831342679</v>
       </c>
-      <c r="I54" t="n">
+      <c r="K54" t="n">
         <v>0.004350983317474035</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>0.006335359272400488</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>0.07959263677980553</v>
       </c>
-      <c r="L54" t="n">
+      <c r="N54" t="n">
         <v>0.0958909661000524</v>
       </c>
-      <c r="M54" t="n">
+      <c r="O54" t="n">
         <v>-12.13656667</v>
       </c>
-      <c r="N54" t="n">
+      <c r="P54" t="n">
         <v>-11.35073333</v>
       </c>
-      <c r="O54" t="n">
+      <c r="Q54" t="n">
         <v>-7.37920667</v>
       </c>
-      <c r="P54" t="n">
+      <c r="R54" t="n">
         <v>10.5686</v>
       </c>
-      <c r="Q54" t="n">
+      <c r="S54" t="n">
         <v>-12.2569</v>
       </c>
-      <c r="R54" t="n">
+      <c r="T54" t="n">
         <v>-5.94339</v>
       </c>
-      <c r="S54" t="n">
+      <c r="U54" t="n">
         <v>1.55</v>
       </c>
-      <c r="T54" t="n">
+      <c r="V54" t="n">
         <v>56</v>
       </c>
     </row>
@@ -3832,54 +4160,60 @@
         <v>-0.2089585416666667</v>
       </c>
       <c r="D55" t="n">
+        <v>-0.08333333333333333</v>
+      </c>
+      <c r="E55" t="n">
+        <v>-4</v>
+      </c>
+      <c r="F55" t="n">
         <v>68.79397672826831</v>
       </c>
-      <c r="E55" t="n">
+      <c r="G55" t="n">
         <v>2.72647261621002e-06</v>
       </c>
-      <c r="F55" t="n">
+      <c r="H55" t="n">
         <v>2.477917779127588e-06</v>
       </c>
-      <c r="G55" t="n">
+      <c r="I55" t="n">
         <v>0.03331056059589617</v>
       </c>
-      <c r="H55" t="n">
+      <c r="J55" t="n">
         <v>0.04998389811016978</v>
       </c>
-      <c r="I55" t="n">
+      <c r="K55" t="n">
         <v>0.0208774207555542</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>0.01804507033961869</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>0.0340091095541603</v>
       </c>
-      <c r="L55" t="n">
+      <c r="N55" t="n">
         <v>0.0373735317280495</v>
       </c>
-      <c r="M55" t="n">
+      <c r="O55" t="n">
         <v>-13.6944</v>
       </c>
-      <c r="N55" t="n">
+      <c r="P55" t="n">
         <v>-12.57573333</v>
       </c>
-      <c r="O55" t="n">
+      <c r="Q55" t="n">
         <v>-6.36720333</v>
       </c>
-      <c r="P55" t="n">
+      <c r="R55" t="n">
         <v>11.9485</v>
       </c>
-      <c r="Q55" t="n">
+      <c r="S55" t="n">
         <v>-10.34585333</v>
       </c>
-      <c r="R55" t="n">
+      <c r="T55" t="n">
         <v>-6.27624667</v>
       </c>
-      <c r="S55" t="n">
+      <c r="U55" t="n">
         <v>0.8181818181818182</v>
       </c>
-      <c r="T55" t="n">
+      <c r="V55" t="n">
         <v>61</v>
       </c>
     </row>
@@ -3894,54 +4228,60 @@
         <v>-0.2279547727272727</v>
       </c>
       <c r="D56" t="n">
+        <v>-0.09090909090909091</v>
+      </c>
+      <c r="E56" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F56" t="n">
         <v>64.66803559206024</v>
       </c>
-      <c r="E56" t="n">
+      <c r="G56" t="n">
         <v>2.803579419592423e-06</v>
       </c>
-      <c r="F56" t="n">
+      <c r="H56" t="n">
         <v>2.123957108964928e-06</v>
       </c>
-      <c r="G56" t="n">
+      <c r="I56" t="n">
         <v>0.03839582724535855</v>
       </c>
-      <c r="H56" t="n">
+      <c r="J56" t="n">
         <v>0.04174049309844414</v>
       </c>
-      <c r="I56" t="n">
+      <c r="K56" t="n">
         <v>0.005172297288721335</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>0.006914120191151786</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>0.06959210376593364</v>
       </c>
-      <c r="L56" t="n">
+      <c r="N56" t="n">
         <v>0.09536694655764333</v>
       </c>
-      <c r="M56" t="n">
+      <c r="O56" t="n">
         <v>-13.07213333</v>
       </c>
-      <c r="N56" t="n">
+      <c r="P56" t="n">
         <v>-13.74023333</v>
       </c>
-      <c r="O56" t="n">
+      <c r="Q56" t="n">
         <v>-4.85166667</v>
       </c>
-      <c r="P56" t="n">
+      <c r="R56" t="n">
         <v>12.63216667</v>
       </c>
-      <c r="Q56" t="n">
+      <c r="S56" t="n">
         <v>-14.2013</v>
       </c>
-      <c r="R56" t="n">
+      <c r="T56" t="n">
         <v>-5.41439667</v>
       </c>
-      <c r="S56" t="n">
+      <c r="U56" t="n">
         <v>3.869090909090909</v>
       </c>
-      <c r="T56" t="n">
+      <c r="V56" t="n">
         <v>65</v>
       </c>
     </row>
@@ -3956,54 +4296,60 @@
         <v>-0.04559095454545455</v>
       </c>
       <c r="D57" t="n">
+        <v>-0.01818181818181818</v>
+      </c>
+      <c r="E57" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F57" t="n">
         <v>62.51334702258727</v>
       </c>
-      <c r="E57" t="n">
+      <c r="G57" t="n">
         <v>2.314545775246884e-06</v>
       </c>
-      <c r="F57" t="n">
+      <c r="H57" t="n">
         <v>2.455077840711788e-06</v>
       </c>
-      <c r="G57" t="n">
+      <c r="I57" t="n">
         <v>0.02228990952379307</v>
       </c>
-      <c r="H57" t="n">
+      <c r="J57" t="n">
         <v>0.02001995233564263</v>
       </c>
-      <c r="I57" t="n">
+      <c r="K57" t="n">
         <v>0.008702503113201475</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>0.007296682598806903</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>0.04642275007698864</v>
       </c>
-      <c r="L57" t="n">
+      <c r="N57" t="n">
         <v>0.06005551001963016</v>
       </c>
-      <c r="M57" t="n">
+      <c r="O57" t="n">
         <v>-12.9159</v>
       </c>
-      <c r="N57" t="n">
+      <c r="P57" t="n">
         <v>-11.9804</v>
       </c>
-      <c r="O57" t="n">
+      <c r="Q57" t="n">
         <v>-6.16447667</v>
       </c>
-      <c r="P57" t="n">
+      <c r="R57" t="n">
         <v>11.03126667</v>
       </c>
-      <c r="Q57" t="n">
+      <c r="S57" t="n">
         <v>-11.11246667</v>
       </c>
-      <c r="R57" t="n">
+      <c r="T57" t="n">
         <v>-6.14242667</v>
       </c>
-      <c r="S57" t="n">
+      <c r="U57" t="n">
         <v>1</v>
       </c>
-      <c r="T57" t="n">
+      <c r="V57" t="n">
         <v>64</v>
       </c>
     </row>
@@ -4018,54 +4364,60 @@
         <v>0</v>
       </c>
       <c r="D58" t="n">
+        <v>0</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" t="n">
         <v>71.89322381930185</v>
       </c>
-      <c r="E58" t="n">
+      <c r="G58" t="n">
         <v>3.194045677129851e-06</v>
       </c>
-      <c r="F58" t="n">
+      <c r="H58" t="n">
         <v>3.524664860925226e-06</v>
       </c>
-      <c r="G58" t="n">
+      <c r="I58" t="n">
         <v>0.01498598931215136</v>
       </c>
-      <c r="H58" t="n">
+      <c r="J58" t="n">
         <v>0.01390416581016332</v>
       </c>
-      <c r="I58" t="n">
+      <c r="K58" t="n">
         <v>0.01903546032842133</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>0.02342962151912744</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>0.02924118370648971</v>
       </c>
-      <c r="L58" t="n">
+      <c r="N58" t="n">
         <v>0.01765192467000205</v>
       </c>
-      <c r="M58" t="n">
+      <c r="O58" t="n">
         <v>-13.77136667</v>
       </c>
-      <c r="N58" t="n">
+      <c r="P58" t="n">
         <v>-12.2281</v>
       </c>
-      <c r="O58" t="n">
+      <c r="Q58" t="n">
         <v>-6.73355333</v>
       </c>
-      <c r="P58" t="n">
+      <c r="R58" t="n">
         <v>11.7603</v>
       </c>
-      <c r="Q58" t="n">
+      <c r="S58" t="n">
         <v>-10.6614</v>
       </c>
-      <c r="R58" t="n">
+      <c r="T58" t="n">
         <v>-5.33214667</v>
       </c>
-      <c r="S58" t="n">
+      <c r="U58" t="n">
         <v>1.027777777777778</v>
       </c>
-      <c r="T58" t="n">
+      <c r="V58" t="n">
         <v>63</v>
       </c>
     </row>
@@ -4080,54 +4432,60 @@
         <v>0</v>
       </c>
       <c r="D59" t="n">
+        <v>0</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" t="n">
         <v>46.10266940451746</v>
       </c>
-      <c r="E59" t="n">
+      <c r="G59" t="n">
         <v>2.139991858724641e-06</v>
       </c>
-      <c r="F59" t="n">
+      <c r="H59" t="n">
         <v>3.203463434630882e-06</v>
       </c>
-      <c r="G59" t="n">
+      <c r="I59" t="n">
         <v>0.02721270619673004</v>
       </c>
-      <c r="H59" t="n">
+      <c r="J59" t="n">
         <v>0.01865332780412333</v>
       </c>
-      <c r="I59" t="n">
+      <c r="K59" t="n">
         <v>0.004535884635857931</v>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>0.0268855098514582</v>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
         <v>0.08950162774840321</v>
       </c>
-      <c r="L59" t="n">
+      <c r="N59" t="n">
         <v>0.01697223426802614</v>
       </c>
-      <c r="M59" t="n">
+      <c r="O59" t="n">
         <v>-14.18706667</v>
       </c>
-      <c r="N59" t="n">
+      <c r="P59" t="n">
         <v>-12.42893333</v>
       </c>
-      <c r="O59" t="n">
+      <c r="Q59" t="n">
         <v>-7.35039667</v>
       </c>
-      <c r="P59" t="n">
+      <c r="R59" t="n">
         <v>13.00973333</v>
       </c>
-      <c r="Q59" t="n">
+      <c r="S59" t="n">
         <v>-11.1519</v>
       </c>
-      <c r="R59" t="n">
+      <c r="T59" t="n">
         <v>-4.63119333</v>
       </c>
-      <c r="S59" t="n">
+      <c r="U59" t="n">
         <v>1</v>
       </c>
-      <c r="T59" t="n">
+      <c r="V59" t="n">
         <v>60</v>
       </c>
     </row>
@@ -4142,54 +4500,60 @@
         <v>-0.04559095454545455</v>
       </c>
       <c r="D60" t="n">
+        <v>-0.01818181818181818</v>
+      </c>
+      <c r="E60" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F60" t="n">
         <v>70.48049281314168</v>
       </c>
-      <c r="E60" t="n">
+      <c r="G60" t="n">
         <v>2.242234463125351e-06</v>
       </c>
-      <c r="F60" t="n">
+      <c r="H60" t="n">
         <v>2.155797862406143e-06</v>
       </c>
-      <c r="G60" t="n">
+      <c r="I60" t="n">
         <v>0.05669135667999138</v>
       </c>
-      <c r="H60" t="n">
+      <c r="J60" t="n">
         <v>0.03164945084999422</v>
       </c>
-      <c r="I60" t="n">
+      <c r="K60" t="n">
         <v>0.005044585085121395</v>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>0.01272509410948599</v>
       </c>
-      <c r="K60" t="n">
+      <c r="M60" t="n">
         <v>0.04006465689155726</v>
       </c>
-      <c r="L60" t="n">
+      <c r="N60" t="n">
         <v>0.06576246397969092</v>
       </c>
-      <c r="M60" t="n">
+      <c r="O60" t="n">
         <v>-10.24289667</v>
       </c>
-      <c r="N60" t="n">
+      <c r="P60" t="n">
         <v>-16.13013333</v>
       </c>
-      <c r="O60" t="n">
+      <c r="Q60" t="n">
         <v>-11.8578</v>
       </c>
-      <c r="P60" t="n">
+      <c r="R60" t="n">
         <v>10.87148333</v>
       </c>
-      <c r="Q60" t="n">
+      <c r="S60" t="n">
         <v>-10.21296833</v>
       </c>
-      <c r="R60" t="n">
+      <c r="T60" t="n">
         <v>-5.23907167</v>
       </c>
-      <c r="S60" t="n">
+      <c r="U60" t="n">
         <v>1.076470588235294</v>
       </c>
-      <c r="T60" t="n">
+      <c r="V60" t="n">
         <v>75</v>
       </c>
     </row>
@@ -4204,54 +4568,60 @@
         <v>0</v>
       </c>
       <c r="D61" t="n">
+        <v>0</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0</v>
+      </c>
+      <c r="F61" t="n">
         <v>63.06913073237509</v>
       </c>
-      <c r="E61" t="n">
+      <c r="G61" t="n">
         <v>2.828806872257293e-06</v>
       </c>
-      <c r="F61" t="n">
+      <c r="H61" t="n">
         <v>2.659888596081135e-06</v>
       </c>
-      <c r="G61" t="n">
+      <c r="I61" t="n">
         <v>0.02490743022272927</v>
       </c>
-      <c r="H61" t="n">
+      <c r="J61" t="n">
         <v>0.02884644174359908</v>
       </c>
-      <c r="I61" t="n">
+      <c r="K61" t="n">
         <v>0.01874975553353763</v>
       </c>
-      <c r="J61" t="n">
+      <c r="L61" t="n">
         <v>0.01684438295251525</v>
       </c>
-      <c r="K61" t="n">
+      <c r="M61" t="n">
         <v>0.03284118405084886</v>
       </c>
-      <c r="L61" t="n">
+      <c r="N61" t="n">
         <v>0.03299928614472172</v>
       </c>
-      <c r="M61" t="n">
+      <c r="O61" t="n">
         <v>-11.1429</v>
       </c>
-      <c r="N61" t="n">
+      <c r="P61" t="n">
         <v>-15.05836667</v>
       </c>
-      <c r="O61" t="n">
+      <c r="Q61" t="n">
         <v>-7.62146</v>
       </c>
-      <c r="P61" t="n">
+      <c r="R61" t="n">
         <v>9.85988667</v>
       </c>
-      <c r="Q61" t="n">
+      <c r="S61" t="n">
         <v>-13.52406667</v>
       </c>
-      <c r="R61" t="n">
+      <c r="T61" t="n">
         <v>-7.69008333</v>
       </c>
-      <c r="S61" t="n">
+      <c r="U61" t="n">
         <v>1.484311363505994</v>
       </c>
-      <c r="T61" t="n">
+      <c r="V61" t="n">
         <v>69</v>
       </c>
     </row>
@@ -4266,54 +4636,60 @@
         <v>0.08646560344827586</v>
       </c>
       <c r="D62" t="n">
+        <v>0.03448275862068965</v>
+      </c>
+      <c r="E62" t="n">
+        <v>2</v>
+      </c>
+      <c r="F62" t="n">
         <v>62.79808350444901</v>
       </c>
-      <c r="E62" t="n">
+      <c r="G62" t="n">
         <v>9.652102901729702e-07</v>
       </c>
-      <c r="F62" t="n">
+      <c r="H62" t="n">
         <v>3.778993876164996e-06</v>
       </c>
-      <c r="G62" t="n">
+      <c r="I62" t="n">
         <v>0.01691619751207856</v>
       </c>
-      <c r="H62" t="n">
+      <c r="J62" t="n">
         <v>0.01104291519302402</v>
       </c>
-      <c r="I62" t="n">
+      <c r="K62" t="n">
         <v>0.01084464177645052</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>0.01712076745442056</v>
       </c>
-      <c r="K62" t="n">
+      <c r="M62" t="n">
         <v>0.03820523108172227</v>
       </c>
-      <c r="L62" t="n">
+      <c r="N62" t="n">
         <v>0.02166688349773368</v>
       </c>
-      <c r="M62" t="n">
+      <c r="O62" t="n">
         <v>-13.03976667</v>
       </c>
-      <c r="N62" t="n">
+      <c r="P62" t="n">
         <v>-12.38056667</v>
       </c>
-      <c r="O62" t="n">
+      <c r="Q62" t="n">
         <v>-5.77352</v>
       </c>
-      <c r="P62" t="n">
+      <c r="R62" t="n">
         <v>12.93703333</v>
       </c>
-      <c r="Q62" t="n">
+      <c r="S62" t="n">
         <v>-12.2052</v>
       </c>
-      <c r="R62" t="n">
+      <c r="T62" t="n">
         <v>-6.13606667</v>
       </c>
-      <c r="S62" t="n">
+      <c r="U62" t="n">
         <v>2.409090909090909</v>
       </c>
-      <c r="T62" t="n">
+      <c r="V62" t="n">
         <v>71</v>
       </c>
     </row>
@@ -4328,54 +4704,60 @@
         <v>-0.1003001</v>
       </c>
       <c r="D63" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="E63" t="n">
+        <v>-2</v>
+      </c>
+      <c r="F63" t="n">
         <v>54.19575633127995</v>
       </c>
-      <c r="E63" t="n">
+      <c r="G63" t="n">
         <v>2.061448362019277e-06</v>
       </c>
-      <c r="F63" t="n">
+      <c r="H63" t="n">
         <v>2.870919111221899e-06</v>
       </c>
-      <c r="G63" t="n">
+      <c r="I63" t="n">
         <v>0.02666643123064861</v>
       </c>
-      <c r="H63" t="n">
+      <c r="J63" t="n">
         <v>0.02254231151851063</v>
       </c>
-      <c r="I63" t="n">
+      <c r="K63" t="n">
         <v>0.008693268041612606</v>
       </c>
-      <c r="J63" t="n">
+      <c r="L63" t="n">
         <v>0.009944575085914115</v>
       </c>
-      <c r="K63" t="n">
+      <c r="M63" t="n">
         <v>0.065889344815536</v>
       </c>
-      <c r="L63" t="n">
+      <c r="N63" t="n">
         <v>0.0464889070330259</v>
       </c>
-      <c r="M63" t="n">
+      <c r="O63" t="n">
         <v>-12.7314</v>
       </c>
-      <c r="N63" t="n">
+      <c r="P63" t="n">
         <v>-10.8125</v>
       </c>
-      <c r="O63" t="n">
+      <c r="Q63" t="n">
         <v>-4.69103</v>
       </c>
-      <c r="P63" t="n">
+      <c r="R63" t="n">
         <v>13.7913</v>
       </c>
-      <c r="Q63" t="n">
+      <c r="S63" t="n">
         <v>-10.684</v>
       </c>
-      <c r="R63" t="n">
+      <c r="T63" t="n">
         <v>-4.96697</v>
       </c>
-      <c r="S63" t="n">
+      <c r="U63" t="n">
         <v>3.024101864483856</v>
       </c>
-      <c r="T63" t="n">
+      <c r="V63" t="n">
         <v>67</v>
       </c>
     </row>
@@ -4390,54 +4772,60 @@
         <v>-0.04916671568627452</v>
       </c>
       <c r="D64" t="n">
+        <v>-0.0196078431372549</v>
+      </c>
+      <c r="E64" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F64" t="n">
         <v>53.3388090349076</v>
       </c>
-      <c r="E64" t="n">
+      <c r="G64" t="n">
         <v>3.58629261483549e-06</v>
       </c>
-      <c r="F64" t="n">
+      <c r="H64" t="n">
         <v>1.982239039300807e-06</v>
       </c>
-      <c r="G64" t="n">
+      <c r="I64" t="n">
         <v>0.01424519089776216</v>
       </c>
-      <c r="H64" t="n">
+      <c r="J64" t="n">
         <v>0.0134950554430349</v>
       </c>
-      <c r="I64" t="n">
+      <c r="K64" t="n">
         <v>0.007212998239309295</v>
       </c>
-      <c r="J64" t="n">
+      <c r="L64" t="n">
         <v>0.009432241082637721</v>
       </c>
-      <c r="K64" t="n">
+      <c r="M64" t="n">
         <v>0.1069186441870816</v>
       </c>
-      <c r="L64" t="n">
+      <c r="N64" t="n">
         <v>0.07592057705051232</v>
       </c>
-      <c r="M64" t="n">
+      <c r="O64" t="n">
         <v>-13.48546667</v>
       </c>
-      <c r="N64" t="n">
+      <c r="P64" t="n">
         <v>-13.0047</v>
       </c>
-      <c r="O64" t="n">
+      <c r="Q64" t="n">
         <v>-5.91953</v>
       </c>
-      <c r="P64" t="n">
+      <c r="R64" t="n">
         <v>11.1835</v>
       </c>
-      <c r="Q64" t="n">
+      <c r="S64" t="n">
         <v>-12.27186667</v>
       </c>
-      <c r="R64" t="n">
+      <c r="T64" t="n">
         <v>-5.71536333</v>
       </c>
-      <c r="S64" t="n">
+      <c r="U64" t="n">
         <v>2.757621951219512</v>
       </c>
-      <c r="T64" t="n">
+      <c r="V64" t="n">
         <v>73</v>
       </c>
     </row>
@@ -4452,54 +4840,60 @@
         <v>-0.1857409259259259</v>
       </c>
       <c r="D65" t="n">
+        <v>-0.07407407407407407</v>
+      </c>
+      <c r="E65" t="n">
+        <v>-4</v>
+      </c>
+      <c r="F65" t="n">
         <v>63.4880219028063</v>
       </c>
-      <c r="E65" t="n">
+      <c r="G65" t="n">
         <v>3.778993876164996e-06</v>
       </c>
-      <c r="F65" t="n">
+      <c r="H65" t="n">
         <v>2.036250741649954e-06</v>
       </c>
-      <c r="G65" t="n">
+      <c r="I65" t="n">
         <v>0.03078368117479823</v>
       </c>
-      <c r="H65" t="n">
+      <c r="J65" t="n">
         <v>0.03810982973034849</v>
       </c>
-      <c r="I65" t="n">
+      <c r="K65" t="n">
         <v>0.02456044357434428</v>
       </c>
-      <c r="J65" t="n">
+      <c r="L65" t="n">
         <v>0.02111702655808377</v>
       </c>
-      <c r="K65" t="n">
+      <c r="M65" t="n">
         <v>0.03766820302301559</v>
       </c>
-      <c r="L65" t="n">
+      <c r="N65" t="n">
         <v>0.04502198684401701</v>
       </c>
-      <c r="M65" t="n">
+      <c r="O65" t="n">
         <v>-10.84746667</v>
       </c>
-      <c r="N65" t="n">
+      <c r="P65" t="n">
         <v>-12.6694</v>
       </c>
-      <c r="O65" t="n">
+      <c r="Q65" t="n">
         <v>-7.92668333</v>
       </c>
-      <c r="P65" t="n">
+      <c r="R65" t="n">
         <v>11.20566667</v>
       </c>
-      <c r="Q65" t="n">
+      <c r="S65" t="n">
         <v>-13.81766667</v>
       </c>
-      <c r="R65" t="n">
+      <c r="T65" t="n">
         <v>-6.47658667</v>
       </c>
-      <c r="S65" t="n">
+      <c r="U65" t="n">
         <v>1.635723270440252</v>
       </c>
-      <c r="T65" t="n">
+      <c r="V65" t="n">
         <v>80</v>
       </c>
     </row>
@@ -4514,54 +4908,60 @@
         <v>-0.2279547727272727</v>
       </c>
       <c r="D66" t="n">
+        <v>-0.09090909090909091</v>
+      </c>
+      <c r="E66" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F66" t="n">
         <v>74.12731006160165</v>
       </c>
-      <c r="E66" t="n">
+      <c r="G66" t="n">
         <v>2.568941703125856e-06</v>
       </c>
-      <c r="F66" t="n">
+      <c r="H66" t="n">
         <v>2.388935291293474e-06</v>
       </c>
-      <c r="G66" t="n">
+      <c r="I66" t="n">
         <v>0.04641881805825977</v>
       </c>
-      <c r="H66" t="n">
+      <c r="J66" t="n">
         <v>0.02213949884829194</v>
       </c>
-      <c r="I66" t="n">
+      <c r="K66" t="n">
         <v>0.0253902827613485</v>
       </c>
-      <c r="J66" t="n">
+      <c r="L66" t="n">
         <v>0.01175643864382187</v>
       </c>
-      <c r="K66" t="n">
+      <c r="M66" t="n">
         <v>0.01662470685441262</v>
       </c>
-      <c r="L66" t="n">
+      <c r="N66" t="n">
         <v>0.05504730358115705</v>
       </c>
-      <c r="M66" t="n">
+      <c r="O66" t="n">
         <v>-10.427465</v>
       </c>
-      <c r="N66" t="n">
+      <c r="P66" t="n">
         <v>-14.16381667</v>
       </c>
-      <c r="O66" t="n">
+      <c r="Q66" t="n">
         <v>-7.38757167</v>
       </c>
-      <c r="P66" t="n">
+      <c r="R66" t="n">
         <v>13.2928</v>
       </c>
-      <c r="Q66" t="n">
+      <c r="S66" t="n">
         <v>-11.27606667</v>
       </c>
-      <c r="R66" t="n">
+      <c r="T66" t="n">
         <v>-5.75774</v>
       </c>
-      <c r="S66" t="n">
+      <c r="U66" t="n">
         <v>1.257417582417582</v>
       </c>
-      <c r="T66" t="n">
+      <c r="V66" t="n">
         <v>74</v>
       </c>
     </row>
@@ -4576,54 +4976,60 @@
         <v>0</v>
       </c>
       <c r="D67" t="n">
+        <v>0</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0</v>
+      </c>
+      <c r="F67" t="n">
         <v>62.0123203285421</v>
       </c>
-      <c r="E67" t="n">
+      <c r="G67" t="n">
         <v>1.876863362198267e-06</v>
       </c>
-      <c r="F67" t="n">
+      <c r="H67" t="n">
         <v>2.271894880404083e-06</v>
       </c>
-      <c r="G67" t="n">
+      <c r="I67" t="n">
         <v>0.02014826333263334</v>
       </c>
-      <c r="H67" t="n">
+      <c r="J67" t="n">
         <v>0.02235633261157775</v>
       </c>
-      <c r="I67" t="n">
+      <c r="K67" t="n">
         <v>0.01170101448551186</v>
       </c>
-      <c r="J67" t="n">
+      <c r="L67" t="n">
         <v>0.01251535995011957</v>
       </c>
-      <c r="K67" t="n">
+      <c r="M67" t="n">
         <v>0.05468289945658513</v>
       </c>
-      <c r="L67" t="n">
+      <c r="N67" t="n">
         <v>0.06694852670297222</v>
       </c>
-      <c r="M67" t="n">
+      <c r="O67" t="n">
         <v>-11.65316667</v>
       </c>
-      <c r="N67" t="n">
+      <c r="P67" t="n">
         <v>-15.49216667</v>
       </c>
-      <c r="O67" t="n">
+      <c r="Q67" t="n">
         <v>-8.95586333</v>
       </c>
-      <c r="P67" t="n">
+      <c r="R67" t="n">
         <v>11.0798</v>
       </c>
-      <c r="Q67" t="n">
+      <c r="S67" t="n">
         <v>-15.7015</v>
       </c>
-      <c r="R67" t="n">
+      <c r="T67" t="n">
         <v>-9.538970000000001</v>
       </c>
-      <c r="S67" t="n">
+      <c r="U67" t="n">
         <v>7.466666666666667</v>
       </c>
-      <c r="T67" t="n">
+      <c r="V67" t="n">
         <v>70</v>
       </c>
     </row>
@@ -4638,54 +5044,60 @@
         <v>0.1671668333333333</v>
       </c>
       <c r="D68" t="n">
+        <v>0.06666666666666667</v>
+      </c>
+      <c r="E68" t="n">
+        <v>2</v>
+      </c>
+      <c r="F68" t="n">
         <v>58.29158110882957</v>
       </c>
-      <c r="E68" t="n">
+      <c r="G68" t="n">
         <v>2.669890838277459e-06</v>
       </c>
-      <c r="F68" t="n">
+      <c r="H68" t="n">
         <v>2.500268820156678e-06</v>
       </c>
-      <c r="G68" t="n">
+      <c r="I68" t="n">
         <v>0.01253050468997269</v>
       </c>
-      <c r="H68" t="n">
+      <c r="J68" t="n">
         <v>0.01711530886261607</v>
       </c>
-      <c r="I68" t="n">
+      <c r="K68" t="n">
         <v>0.01025043146866077</v>
       </c>
-      <c r="J68" t="n">
+      <c r="L68" t="n">
         <v>0.01513301803628933</v>
       </c>
-      <c r="K68" t="n">
+      <c r="M68" t="n">
         <v>0.05728042999921344</v>
       </c>
-      <c r="L68" t="n">
+      <c r="N68" t="n">
         <v>0.0480749355162927</v>
       </c>
-      <c r="M68" t="n">
+      <c r="O68" t="n">
         <v>-13.57816667</v>
       </c>
-      <c r="N68" t="n">
+      <c r="P68" t="n">
         <v>-13.24823333</v>
       </c>
-      <c r="O68" t="n">
+      <c r="Q68" t="n">
         <v>-6.03404667</v>
       </c>
-      <c r="P68" t="n">
+      <c r="R68" t="n">
         <v>12.18793333</v>
       </c>
-      <c r="Q68" t="n">
+      <c r="S68" t="n">
         <v>-12.5115</v>
       </c>
-      <c r="R68" t="n">
+      <c r="T68" t="n">
         <v>-6.98725</v>
       </c>
-      <c r="S68" t="n">
+      <c r="U68" t="n">
         <v>1.597222222222222</v>
       </c>
-      <c r="T68" t="n">
+      <c r="V68" t="n">
         <v>68</v>
       </c>
     </row>
@@ -4700,54 +5112,60 @@
         <v>-0.04399127192982456</v>
       </c>
       <c r="D69" t="n">
+        <v>-0.01754385964912281</v>
+      </c>
+      <c r="E69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F69" t="n">
         <v>50.74880219028063</v>
       </c>
-      <c r="E69" t="n">
+      <c r="G69" t="n">
         <v>2.920492638556725e-06</v>
       </c>
-      <c r="F69" t="n">
+      <c r="H69" t="n">
         <v>2.121664920384285e-06</v>
       </c>
-      <c r="G69" t="n">
+      <c r="I69" t="n">
         <v>0.01631085503190852</v>
       </c>
-      <c r="H69" t="n">
+      <c r="J69" t="n">
         <v>0.01789781990455916</v>
       </c>
-      <c r="I69" t="n">
+      <c r="K69" t="n">
         <v>0.01955331948156106</v>
       </c>
-      <c r="J69" t="n">
+      <c r="L69" t="n">
         <v>0.01591756497578269</v>
       </c>
-      <c r="K69" t="n">
+      <c r="M69" t="n">
         <v>0.03156073935177161</v>
       </c>
-      <c r="L69" t="n">
+      <c r="N69" t="n">
         <v>0.04616223702472794</v>
       </c>
-      <c r="M69" t="n">
+      <c r="O69" t="n">
         <v>-12.8832</v>
       </c>
-      <c r="N69" t="n">
+      <c r="P69" t="n">
         <v>-14.02223333</v>
       </c>
-      <c r="O69" t="n">
+      <c r="Q69" t="n">
         <v>-5.86195</v>
       </c>
-      <c r="P69" t="n">
+      <c r="R69" t="n">
         <v>10.89163333</v>
       </c>
-      <c r="Q69" t="n">
+      <c r="S69" t="n">
         <v>-11.60513333</v>
       </c>
-      <c r="R69" t="n">
+      <c r="T69" t="n">
         <v>-6.58439667</v>
       </c>
-      <c r="S69" t="n">
+      <c r="U69" t="n">
         <v>0.9036144578313253</v>
       </c>
-      <c r="T69" t="n">
+      <c r="V69" t="n">
         <v>76</v>
       </c>
     </row>
@@ -4762,54 +5180,60 @@
         <v>0</v>
       </c>
       <c r="D70" t="n">
+        <v>0</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0</v>
+      </c>
+      <c r="F70" t="n">
         <v>69.59342915811088</v>
       </c>
-      <c r="E70" t="n">
+      <c r="G70" t="n">
         <v>2.384296867525231e-06</v>
       </c>
-      <c r="F70" t="n">
+      <c r="H70" t="n">
         <v>2.142758304819063e-06</v>
       </c>
-      <c r="G70" t="n">
+      <c r="I70" t="n">
         <v>0.02266845952307394</v>
       </c>
-      <c r="H70" t="n">
+      <c r="J70" t="n">
         <v>0.0158326087911487</v>
       </c>
-      <c r="I70" t="n">
+      <c r="K70" t="n">
         <v>0.01053918332190575</v>
       </c>
-      <c r="J70" t="n">
+      <c r="L70" t="n">
         <v>0.003954173702753673</v>
       </c>
-      <c r="K70" t="n">
+      <c r="M70" t="n">
         <v>0.04910456053352327</v>
       </c>
-      <c r="L70" t="n">
+      <c r="N70" t="n">
         <v>0.114303632539518</v>
       </c>
-      <c r="M70" t="n">
+      <c r="O70" t="n">
         <v>-10.70013333</v>
       </c>
-      <c r="N70" t="n">
+      <c r="P70" t="n">
         <v>-13.86596667</v>
       </c>
-      <c r="O70" t="n">
+      <c r="Q70" t="n">
         <v>-7.03050667</v>
       </c>
-      <c r="P70" t="n">
+      <c r="R70" t="n">
         <v>9.37380667</v>
       </c>
-      <c r="Q70" t="n">
+      <c r="S70" t="n">
         <v>-12.06363333</v>
       </c>
-      <c r="R70" t="n">
+      <c r="T70" t="n">
         <v>-6.38288333</v>
       </c>
-      <c r="S70" t="n">
+      <c r="U70" t="n">
         <v>1.185555555555555</v>
       </c>
-      <c r="T70" t="n">
+      <c r="V70" t="n">
         <v>72</v>
       </c>
     </row>
@@ -4824,54 +5248,60 @@
         <v>-0.08955366071428572</v>
       </c>
       <c r="D71" t="n">
+        <v>-0.03571428571428571</v>
+      </c>
+      <c r="E71" t="n">
+        <v>-2</v>
+      </c>
+      <c r="F71" t="n">
         <v>63.59753593429158</v>
       </c>
-      <c r="E71" t="n">
+      <c r="G71" t="n">
         <v>3.320561788748605e-06</v>
       </c>
-      <c r="F71" t="n">
+      <c r="H71" t="n">
         <v>1.984979354776286e-06</v>
       </c>
-      <c r="G71" t="n">
+      <c r="I71" t="n">
         <v>0.02986364325581919</v>
       </c>
-      <c r="H71" t="n">
+      <c r="J71" t="n">
         <v>0.01993947581874712</v>
       </c>
-      <c r="I71" t="n">
+      <c r="K71" t="n">
         <v>0.01756348624231369</v>
       </c>
-      <c r="J71" t="n">
+      <c r="L71" t="n">
         <v>0.006551769720565378</v>
       </c>
-      <c r="K71" t="n">
+      <c r="M71" t="n">
         <v>0.04329951789054143</v>
       </c>
-      <c r="L71" t="n">
+      <c r="N71" t="n">
         <v>0.0811041091411958</v>
       </c>
-      <c r="M71" t="n">
+      <c r="O71" t="n">
         <v>-12.5888</v>
       </c>
-      <c r="N71" t="n">
+      <c r="P71" t="n">
         <v>-14.22406667</v>
       </c>
-      <c r="O71" t="n">
+      <c r="Q71" t="n">
         <v>-7.84645</v>
       </c>
-      <c r="P71" t="n">
+      <c r="R71" t="n">
         <v>14.0823</v>
       </c>
-      <c r="Q71" t="n">
+      <c r="S71" t="n">
         <v>-11.7237</v>
       </c>
-      <c r="R71" t="n">
+      <c r="T71" t="n">
         <v>-3.73852</v>
       </c>
-      <c r="S71" t="n">
+      <c r="U71" t="n">
         <v>1.936166019034747</v>
       </c>
-      <c r="T71" t="n">
+      <c r="V71" t="n">
         <v>79</v>
       </c>
     </row>
@@ -4886,54 +5316,60 @@
         <v>0</v>
       </c>
       <c r="D72" t="n">
+        <v>0</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0</v>
+      </c>
+      <c r="F72" t="n">
         <v>50.90759753593429</v>
       </c>
-      <c r="E72" t="n">
+      <c r="G72" t="n">
         <v>2.374493772419383e-06</v>
       </c>
-      <c r="F72" t="n">
+      <c r="H72" t="n">
         <v>3.165517996864003e-06</v>
       </c>
-      <c r="G72" t="n">
+      <c r="I72" t="n">
         <v>0.01745703253459399</v>
       </c>
-      <c r="H72" t="n">
+      <c r="J72" t="n">
         <v>0.01706238796366991</v>
       </c>
-      <c r="I72" t="n">
+      <c r="K72" t="n">
         <v>0.008942890736618305</v>
       </c>
-      <c r="J72" t="n">
+      <c r="L72" t="n">
         <v>0.01431397238880984</v>
       </c>
-      <c r="K72" t="n">
+      <c r="M72" t="n">
         <v>0.0693218690883418</v>
       </c>
-      <c r="L72" t="n">
+      <c r="N72" t="n">
         <v>0.05134206838750782</v>
       </c>
-      <c r="M72" t="n">
+      <c r="O72" t="n">
         <v>-13.905</v>
       </c>
-      <c r="N72" t="n">
+      <c r="P72" t="n">
         <v>-11.7217</v>
       </c>
-      <c r="O72" t="n">
+      <c r="Q72" t="n">
         <v>-5.62669</v>
       </c>
-      <c r="P72" t="n">
+      <c r="R72" t="n">
         <v>11.43886667</v>
       </c>
-      <c r="Q72" t="n">
+      <c r="S72" t="n">
         <v>-11.4857</v>
       </c>
-      <c r="R72" t="n">
+      <c r="T72" t="n">
         <v>-6.26451333</v>
       </c>
-      <c r="S72" t="n">
+      <c r="U72" t="n">
         <v>2.579617834394905</v>
       </c>
-      <c r="T72" t="n">
+      <c r="V72" t="n">
         <v>82</v>
       </c>
     </row>
@@ -4948,54 +5384,60 @@
         <v>0</v>
       </c>
       <c r="D73" t="n">
+        <v>0</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0</v>
+      </c>
+      <c r="F73" t="n">
         <v>59.49349760438056</v>
       </c>
-      <c r="E73" t="n">
+      <c r="G73" t="n">
         <v>2.575827121619757e-06</v>
       </c>
-      <c r="F73" t="n">
+      <c r="H73" t="n">
         <v>1.833330628939897e-06</v>
       </c>
-      <c r="G73" t="n">
+      <c r="I73" t="n">
         <v>0.01962626053639563</v>
       </c>
-      <c r="H73" t="n">
+      <c r="J73" t="n">
         <v>0.02953309378261859</v>
       </c>
-      <c r="I73" t="n">
+      <c r="K73" t="n">
         <v>0.02395418136629137</v>
       </c>
-      <c r="J73" t="n">
+      <c r="L73" t="n">
         <v>0.01157772859511288</v>
       </c>
-      <c r="K73" t="n">
+      <c r="M73" t="n">
         <v>0.03273100310736587</v>
       </c>
-      <c r="L73" t="n">
+      <c r="N73" t="n">
         <v>0.06596135853189741</v>
       </c>
-      <c r="M73" t="n">
+      <c r="O73" t="n">
         <v>-12.72486667</v>
       </c>
-      <c r="N73" t="n">
+      <c r="P73" t="n">
         <v>-13.78316667</v>
       </c>
-      <c r="O73" t="n">
+      <c r="Q73" t="n">
         <v>-6.53350333</v>
       </c>
-      <c r="P73" t="n">
+      <c r="R73" t="n">
         <v>10.54533333</v>
       </c>
-      <c r="Q73" t="n">
+      <c r="S73" t="n">
         <v>-12.4841</v>
       </c>
-      <c r="R73" t="n">
+      <c r="T73" t="n">
         <v>-7.35168667</v>
       </c>
-      <c r="S73" t="n">
+      <c r="U73" t="n">
         <v>1.537878787878788</v>
       </c>
-      <c r="T73" t="n">
+      <c r="V73" t="n">
         <v>77</v>
       </c>
     </row>
@@ -5010,54 +5452,60 @@
         <v>-0.08955366071428572</v>
       </c>
       <c r="D74" t="n">
+        <v>-0.03571428571428571</v>
+      </c>
+      <c r="E74" t="n">
+        <v>-2</v>
+      </c>
+      <c r="F74" t="n">
         <v>62.42573579739904</v>
       </c>
-      <c r="E74" t="n">
+      <c r="G74" t="n">
         <v>1.649011521849244e-06</v>
       </c>
-      <c r="F74" t="n">
+      <c r="H74" t="n">
         <v>2.065860740593854e-06</v>
       </c>
-      <c r="G74" t="n">
+      <c r="I74" t="n">
         <v>0.0290351265491454</v>
       </c>
-      <c r="H74" t="n">
+      <c r="J74" t="n">
         <v>0.01043606409322877</v>
       </c>
-      <c r="I74" t="n">
+      <c r="K74" t="n">
         <v>0.008654752429174186</v>
       </c>
-      <c r="J74" t="n">
+      <c r="L74" t="n">
         <v>0.01134475269443841</v>
       </c>
-      <c r="K74" t="n">
+      <c r="M74" t="n">
         <v>0.08441736641599711</v>
       </c>
-      <c r="L74" t="n">
+      <c r="N74" t="n">
         <v>0.102908580875034</v>
       </c>
-      <c r="M74" t="n">
+      <c r="O74" t="n">
         <v>-14.7435</v>
       </c>
-      <c r="N74" t="n">
+      <c r="P74" t="n">
         <v>-10.6301</v>
       </c>
-      <c r="O74" t="n">
+      <c r="Q74" t="n">
         <v>-5.74873</v>
       </c>
-      <c r="P74" t="n">
+      <c r="R74" t="n">
         <v>11.38706667</v>
       </c>
-      <c r="Q74" t="n">
+      <c r="S74" t="n">
         <v>-13.03366667</v>
       </c>
-      <c r="R74" t="n">
+      <c r="T74" t="n">
         <v>-6.21419667</v>
       </c>
-      <c r="S74" t="n">
+      <c r="U74" t="n">
         <v>2.241783707865169</v>
       </c>
-      <c r="T74" t="n">
+      <c r="V74" t="n">
         <v>78</v>
       </c>
     </row>
@@ -5072,54 +5520,60 @@
         <v>0</v>
       </c>
       <c r="D75" t="n">
+        <v>0</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0</v>
+      </c>
+      <c r="F75" t="n">
         <v>61.13620807665982</v>
       </c>
-      <c r="E75" t="n">
+      <c r="G75" t="n">
         <v>1.982980126970295e-06</v>
       </c>
-      <c r="F75" t="n">
+      <c r="H75" t="n">
         <v>2.082721275089406e-06</v>
       </c>
-      <c r="G75" t="n">
+      <c r="I75" t="n">
         <v>0.0247911508613205</v>
       </c>
-      <c r="H75" t="n">
+      <c r="J75" t="n">
         <v>0.02834676258594926</v>
       </c>
-      <c r="I75" t="n">
+      <c r="K75" t="n">
         <v>0.009822179847368316</v>
       </c>
-      <c r="J75" t="n">
+      <c r="L75" t="n">
         <v>0.00602639917927475</v>
       </c>
-      <c r="K75" t="n">
+      <c r="M75" t="n">
         <v>0.06883671837877869</v>
       </c>
-      <c r="L75" t="n">
+      <c r="N75" t="n">
         <v>0.07175498973264616</v>
       </c>
-      <c r="M75" t="n">
+      <c r="O75" t="n">
         <v>-11.50433333</v>
       </c>
-      <c r="N75" t="n">
+      <c r="P75" t="n">
         <v>-14.28886667</v>
       </c>
-      <c r="O75" t="n">
+      <c r="Q75" t="n">
         <v>-6.31604333</v>
       </c>
-      <c r="P75" t="n">
+      <c r="R75" t="n">
         <v>9.19078667</v>
       </c>
-      <c r="Q75" t="n">
+      <c r="S75" t="n">
         <v>-12.65683333</v>
       </c>
-      <c r="R75" t="n">
+      <c r="T75" t="n">
         <v>-7.08474</v>
       </c>
-      <c r="S75" t="n">
+      <c r="U75" t="n">
         <v>1.650793650793651</v>
       </c>
-      <c r="T75" t="n">
+      <c r="V75" t="n">
         <v>81</v>
       </c>
     </row>
